--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_1.8E-09_15 s_724 TPD_output Acetic acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_1.8E-09_15 s_724 TPD_output Acetic acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4562 +417,4122 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>94.40000000000001</v>
+        <v>112.4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>58790.72540868903</v>
       </c>
       <c r="C2">
-        <v>2027.951117342422</v>
+        <v>14475.06236690475</v>
       </c>
       <c r="D2">
-        <v>1172.811238521848</v>
+        <v>55784.24531534374</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1562.932098531378</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>459.4478645273011</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>94.40000000000001</v>
+        <v>115</v>
       </c>
       <c r="B3">
-        <v>439980</v>
+        <v>46436.0118586555</v>
       </c>
       <c r="C3">
-        <v>13917.95111734242</v>
+        <v>13103.35933107025</v>
       </c>
       <c r="D3">
-        <v>3142.811238521848</v>
+        <v>50834.37219242832</v>
       </c>
       <c r="E3">
-        <v>530</v>
+        <v>1367.58676405527</v>
       </c>
       <c r="F3">
-        <v>120</v>
+        <v>454.5386948407977</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>94.40000000000001</v>
+        <v>117.3</v>
       </c>
       <c r="B4">
-        <v>440530</v>
+        <v>47940.30371824112</v>
       </c>
       <c r="C4">
-        <v>15297.95111734242</v>
+        <v>11496.85279937051</v>
       </c>
       <c r="D4">
-        <v>3592.811238521848</v>
+        <v>44408.71519908005</v>
       </c>
       <c r="E4">
-        <v>1250</v>
+        <v>1900.165891249483</v>
       </c>
       <c r="F4">
-        <v>539.9999999999995</v>
+        <v>290.1959678104299</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>94.40000000000001</v>
+        <v>120.1</v>
       </c>
       <c r="B5">
-        <v>432550</v>
+        <v>41562.9198951281</v>
       </c>
       <c r="C5">
-        <v>15087.95111734242</v>
+        <v>12105.01876077951</v>
       </c>
       <c r="D5">
-        <v>4262.811238521848</v>
+        <v>39322.69798978649</v>
       </c>
       <c r="E5">
-        <v>2020</v>
+        <v>1382.87091565983</v>
       </c>
       <c r="F5">
-        <v>190</v>
+        <v>304.9091696865033</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>94.40000000000001</v>
+        <v>122.7</v>
       </c>
       <c r="B6">
-        <v>438780</v>
+        <v>43658.20634509458</v>
       </c>
       <c r="C6">
-        <v>16237.95111734242</v>
+        <v>10673.31572494502</v>
       </c>
       <c r="D6">
-        <v>5192.811238521848</v>
+        <v>36672.82486687104</v>
       </c>
       <c r="E6">
-        <v>1930</v>
+        <v>2077.525581183719</v>
       </c>
       <c r="F6">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>94.40000000000001</v>
+        <v>124.9</v>
       </c>
       <c r="B7">
-        <v>438460</v>
+        <v>33248.83334121994</v>
       </c>
       <c r="C7">
-        <v>16927.95111734242</v>
+        <v>11131.87469462353</v>
       </c>
       <c r="D7">
-        <v>4312.811238521848</v>
+        <v>33915.23991671183</v>
       </c>
       <c r="E7">
-        <v>1450</v>
+        <v>1366.079528934705</v>
       </c>
       <c r="F7">
-        <v>409.9999999999995</v>
+        <v>385.8460871883433</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>94.3</v>
+        <v>127</v>
       </c>
       <c r="B8">
-        <v>429362.426556648</v>
+        <v>33475.79547388518</v>
       </c>
       <c r="C8">
-        <v>15925.85930367461</v>
+        <v>10175.49916568028</v>
       </c>
       <c r="D8">
-        <v>3887.167662227322</v>
+        <v>30585.72700974167</v>
       </c>
       <c r="E8">
-        <v>1616.56295353345</v>
+        <v>1700.608297242466</v>
       </c>
       <c r="F8">
-        <v>330.2878319789312</v>
+        <v>191.8809885953979</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>94.3</v>
+        <v>129.1</v>
       </c>
       <c r="B9">
-        <v>431062.426556648</v>
+        <v>34782.75760655041</v>
       </c>
       <c r="C9">
-        <v>17535.85930367461</v>
+        <v>11049.12363673703</v>
       </c>
       <c r="D9">
-        <v>5557.167662227322</v>
+        <v>31696.21410277151</v>
       </c>
       <c r="E9">
-        <v>2226.56295353345</v>
+        <v>1455.137065550224</v>
       </c>
       <c r="F9">
-        <v>290.2878319789312</v>
+        <v>327.9158900024534</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>94.2</v>
+        <v>131.2</v>
       </c>
       <c r="B10">
-        <v>429864.8531132961</v>
+        <v>30679.71973921552</v>
       </c>
       <c r="C10">
-        <v>18413.7674900068</v>
+        <v>16002.74810779379</v>
       </c>
       <c r="D10">
-        <v>4661.524085932793</v>
+        <v>30436.70119580135</v>
       </c>
       <c r="E10">
-        <v>2543.1259070669</v>
+        <v>1679.665833857986</v>
       </c>
       <c r="F10">
-        <v>500.5756639578627</v>
+        <v>493.9507914095089</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>94.2</v>
+        <v>133.6</v>
       </c>
       <c r="B11">
-        <v>423084.8531132961</v>
+        <v>26257.67646226151</v>
       </c>
       <c r="C11">
-        <v>17783.7674900068</v>
+        <v>11711.1760747158</v>
       </c>
       <c r="D11">
-        <v>5981.524085932793</v>
+        <v>29332.97215926402</v>
       </c>
       <c r="E11">
-        <v>2283.1259070669</v>
+        <v>1256.270140495423</v>
       </c>
       <c r="F11">
-        <v>610.5756639578627</v>
+        <v>249.4192501604289</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>94.2</v>
+        <v>135.8</v>
       </c>
       <c r="B12">
-        <v>426334.8531132961</v>
+        <v>22978.30345838699</v>
       </c>
       <c r="C12">
-        <v>19653.7674900068</v>
+        <v>14249.7350443943</v>
       </c>
       <c r="D12">
-        <v>5781.524085932793</v>
+        <v>31415.3872091048</v>
       </c>
       <c r="E12">
-        <v>2213.1259070669</v>
+        <v>2794.824088246408</v>
       </c>
       <c r="F12">
-        <v>550.5756639578627</v>
+        <v>685.2653373487723</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>94.2</v>
+        <v>138.3</v>
       </c>
       <c r="B13">
-        <v>426254.8531132961</v>
+        <v>22769.92504489311</v>
       </c>
       <c r="C13">
-        <v>18973.7674900068</v>
+        <v>11483.09750993805</v>
       </c>
       <c r="D13">
-        <v>7101.524085932793</v>
+        <v>30593.58612937845</v>
       </c>
       <c r="E13">
-        <v>2883.1259070669</v>
+        <v>715.4535743270731</v>
       </c>
       <c r="F13">
-        <v>180.5756639578628</v>
+        <v>290.5449818809802</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>94.2</v>
+        <v>140.5</v>
       </c>
       <c r="B14">
-        <v>426704.8531132961</v>
+        <v>19920.55204101859</v>
       </c>
       <c r="C14">
-        <v>20613.7674900068</v>
+        <v>11491.65647961656</v>
       </c>
       <c r="D14">
-        <v>15861.52408593279</v>
+        <v>29006.00117921923</v>
       </c>
       <c r="E14">
-        <v>3143.1259070669</v>
+        <v>1424.007522078059</v>
       </c>
       <c r="F14">
-        <v>530.5756639578627</v>
+        <v>366.3910690693235</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>94.40000000000001</v>
+        <v>142.8</v>
       </c>
       <c r="B15">
-        <v>434270</v>
+        <v>17634.8439006042</v>
       </c>
       <c r="C15">
-        <v>21717.95111734242</v>
+        <v>12135.14994791681</v>
       </c>
       <c r="D15">
-        <v>23572.81123852185</v>
+        <v>26340.34418587096</v>
       </c>
       <c r="E15">
-        <v>3890</v>
+        <v>986.5866492722716</v>
       </c>
       <c r="F15">
-        <v>1350</v>
+        <v>422.0483420389557</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>94.8</v>
+        <v>145.1</v>
       </c>
       <c r="B16">
-        <v>444680.2937734079</v>
+        <v>19059.13576018993</v>
       </c>
       <c r="C16">
-        <v>21826.31837201366</v>
+        <v>10828.64341621707</v>
       </c>
       <c r="D16">
-        <v>34105.38554369997</v>
+        <v>25194.68719252268</v>
       </c>
       <c r="E16">
-        <v>4093.748185866201</v>
+        <v>559.1657764664849</v>
       </c>
       <c r="F16">
-        <v>1318.848672084274</v>
+        <v>407.7056150085879</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>95.5</v>
+        <v>147.4</v>
       </c>
       <c r="B17">
-        <v>441863.3078768718</v>
+        <v>16983.42761977566</v>
       </c>
       <c r="C17">
-        <v>30440.96106768832</v>
+        <v>12122.13688451732</v>
       </c>
       <c r="D17">
-        <v>37314.89057776167</v>
+        <v>21219.03019917441</v>
       </c>
       <c r="E17">
-        <v>3937.807511132049</v>
+        <v>1201.744903660698</v>
       </c>
       <c r="F17">
-        <v>1556.833848231754</v>
+        <v>523.3628879782191</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>96.90000000000001</v>
+        <v>149.7</v>
       </c>
       <c r="B18">
-        <v>453169.3360837994</v>
+        <v>15647.71947936127</v>
       </c>
       <c r="C18">
-        <v>26870.24645903766</v>
+        <v>12075.63035281758</v>
       </c>
       <c r="D18">
-        <v>49963.90064588506</v>
+        <v>20673.37320582614</v>
       </c>
       <c r="E18">
-        <v>4285.926161663749</v>
+        <v>1184.324030854911</v>
       </c>
       <c r="F18">
-        <v>1132.804200526715</v>
+        <v>579.0201609478513</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>98.59999999999999</v>
+        <v>152</v>
       </c>
       <c r="B19">
-        <v>463198.0846207832</v>
+        <v>14542.01133894701</v>
       </c>
       <c r="C19">
-        <v>25655.80729139044</v>
+        <v>11939.12382111783</v>
       </c>
       <c r="D19">
-        <v>66269.84144289204</v>
+        <v>16457.71621247786</v>
       </c>
       <c r="E19">
-        <v>5024.355951595097</v>
+        <v>546.9031580491205</v>
       </c>
       <c r="F19">
-        <v>1027.911056884882</v>
+        <v>574.6774339174825</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>100.7</v>
+        <v>154.6</v>
       </c>
       <c r="B20">
-        <v>469697.1269311747</v>
+        <v>19777.29778891349</v>
       </c>
       <c r="C20">
-        <v>24599.73537841445</v>
+        <v>11577.42078528334</v>
       </c>
       <c r="D20">
-        <v>82378.35654507713</v>
+        <v>14567.84308956243</v>
       </c>
       <c r="E20">
-        <v>4756.533927392645</v>
+        <v>991.5578235730129</v>
       </c>
       <c r="F20">
-        <v>971.8665853273222</v>
+        <v>379.7682642309792</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>103.3</v>
+        <v>156.9</v>
       </c>
       <c r="B21">
-        <v>473564.0364583262</v>
+        <v>18031.5896484991</v>
       </c>
       <c r="C21">
-        <v>24994.1225337775</v>
+        <v>11030.91425358359</v>
       </c>
       <c r="D21">
-        <v>90475.08952873487</v>
+        <v>11562.18609621416</v>
       </c>
       <c r="E21">
-        <v>4935.897135522943</v>
+        <v>1244.136950767226</v>
       </c>
       <c r="F21">
-        <v>524.3829538751065</v>
+        <v>685.4255372006113</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>106.2</v>
+        <v>159.1</v>
       </c>
       <c r="B22">
-        <v>476443.6663155336</v>
+        <v>10472.21664462458</v>
       </c>
       <c r="C22">
-        <v>25564.78513014399</v>
+        <v>10349.47322326209</v>
       </c>
       <c r="D22">
-        <v>95858.75324127621</v>
+        <v>11624.60114605494</v>
       </c>
       <c r="E22">
-        <v>4555.571483052893</v>
+        <v>1442.690898518212</v>
       </c>
       <c r="F22">
-        <v>776.035826486096</v>
+        <v>721.2716243889547</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>109.5</v>
+        <v>161.4</v>
       </c>
       <c r="B23">
-        <v>478173.5899461489</v>
+        <v>11976.5085042102</v>
       </c>
       <c r="C23">
-        <v>24753.81498118172</v>
+        <v>11002.96669156235</v>
       </c>
       <c r="D23">
-        <v>91964.99125899567</v>
+        <v>11428.94415270667</v>
       </c>
       <c r="E23">
-        <v>3868.994016449043</v>
+        <v>1705.270025712425</v>
       </c>
       <c r="F23">
-        <v>706.5373711813608</v>
+        <v>546.9288973585868</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>112.4</v>
+        <v>163.7</v>
       </c>
       <c r="B24">
-        <v>477293.2198033563</v>
+        <v>6160.800363795934</v>
       </c>
       <c r="C24">
-        <v>25544.4775775482</v>
+        <v>11696.4601598626</v>
       </c>
       <c r="D24">
-        <v>87628.65497153696</v>
+        <v>9063.287159358399</v>
       </c>
       <c r="E24">
-        <v>3378.668363978989</v>
+        <v>1627.849152906638</v>
       </c>
       <c r="F24">
-        <v>758.1902437923503</v>
+        <v>632.586170328218</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>115</v>
+        <v>166.3</v>
       </c>
       <c r="B25">
-        <v>464000.1293305077</v>
+        <v>9876.086813762413</v>
       </c>
       <c r="C25">
-        <v>24098.86473291126</v>
+        <v>10844.7571240281</v>
       </c>
       <c r="D25">
-        <v>82255.3879551947</v>
+        <v>8853.41403644297</v>
       </c>
       <c r="E25">
-        <v>3168.031572109287</v>
+        <v>1562.503818430527</v>
       </c>
       <c r="F25">
-        <v>750.7066123401345</v>
+        <v>557.6770006417148</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>117.3</v>
+        <v>168.6</v>
       </c>
       <c r="B26">
-        <v>464674.3185276032</v>
+        <v>3900.378673348023</v>
       </c>
       <c r="C26">
-        <v>22426.97644727089</v>
+        <v>11008.25059232836</v>
       </c>
       <c r="D26">
-        <v>75455.19020996889</v>
+        <v>7107.757043094694</v>
       </c>
       <c r="E26">
-        <v>3687.083640839938</v>
+        <v>1085.08294562474</v>
       </c>
       <c r="F26">
-        <v>584.0864768247128</v>
+        <v>563.3342736113469</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>120.1</v>
+        <v>170.8</v>
       </c>
       <c r="B27">
-        <v>457286.3749414586</v>
+        <v>7961.00566947351</v>
       </c>
       <c r="C27">
-        <v>22955.54722996957</v>
+        <v>11336.80956200686</v>
       </c>
       <c r="D27">
-        <v>69913.21034621568</v>
+        <v>6170.172092935478</v>
       </c>
       <c r="E27">
-        <v>3153.320941903333</v>
+        <v>813.6368933757251</v>
       </c>
       <c r="F27">
-        <v>596.0271814146339</v>
+        <v>439.1803607996903</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>122.7</v>
+        <v>173.1</v>
       </c>
       <c r="B28">
-        <v>458443.2844686101</v>
+        <v>235.2975290592367</v>
       </c>
       <c r="C28">
-        <v>21449.93438533263</v>
+        <v>10520.30303030712</v>
       </c>
       <c r="D28">
-        <v>66839.94332987342</v>
+        <v>6304.515099587203</v>
       </c>
       <c r="E28">
-        <v>3832.684150033632</v>
+        <v>616.2160205699383</v>
       </c>
       <c r="F28">
-        <v>288.5435499624177</v>
+        <v>754.8376337693225</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>124.9</v>
+        <v>175.3</v>
       </c>
       <c r="B29">
-        <v>447239.9002223536</v>
+        <v>12265.9245251846</v>
       </c>
       <c r="C29">
-        <v>21845.95428602444</v>
+        <v>11588.86199998562</v>
       </c>
       <c r="D29">
-        <v>63724.10200835302</v>
+        <v>5226.930149427993</v>
       </c>
       <c r="E29">
-        <v>3108.299172297733</v>
+        <v>364.7699683209237</v>
       </c>
       <c r="F29">
-        <v>672.2112464259271</v>
+        <v>600.6837209576659</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>127</v>
+        <v>177.9</v>
       </c>
       <c r="B30">
-        <v>446708.9425327452</v>
+        <v>22111.21097515109</v>
       </c>
       <c r="C30">
-        <v>20829.88237304845</v>
+        <v>12327.15896415113</v>
       </c>
       <c r="D30">
-        <v>60052.61711053814</v>
+        <v>5107.057026512557</v>
       </c>
       <c r="E30">
-        <v>3430.47714809528</v>
+        <v>629.4246338448161</v>
       </c>
       <c r="F30">
-        <v>476.1667748683677</v>
+        <v>495.7745512711625</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>129.1</v>
+        <v>180.2</v>
       </c>
       <c r="B31">
-        <v>447257.9848431369</v>
+        <v>13155.50283473681</v>
       </c>
       <c r="C31">
-        <v>21643.81046007246</v>
+        <v>12250.65243245138</v>
       </c>
       <c r="D31">
-        <v>60821.13221272323</v>
+        <v>4651.400033164289</v>
       </c>
       <c r="E31">
-        <v>3172.655123892827</v>
+        <v>1032.00376103903</v>
       </c>
       <c r="F31">
-        <v>610.1223033108092</v>
+        <v>461.4318242407937</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>131.2</v>
+        <v>182.5</v>
       </c>
       <c r="B32">
-        <v>442397.0271535284</v>
+        <v>2319.794694322431</v>
       </c>
       <c r="C32">
-        <v>26537.73854709648</v>
+        <v>11014.14590075164</v>
       </c>
       <c r="D32">
-        <v>59219.64731490832</v>
+        <v>2715.743039816014</v>
       </c>
       <c r="E32">
-        <v>3384.833099690379</v>
+        <v>404.5828882332389</v>
       </c>
       <c r="F32">
-        <v>774.0778317532498</v>
+        <v>337.0890972104259</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>133.6</v>
+        <v>184.8</v>
       </c>
       <c r="B33">
-        <v>437108.7897939758</v>
+        <v>5834.086553908157</v>
       </c>
       <c r="C33">
-        <v>22177.94207512391</v>
+        <v>10187.63936905189</v>
       </c>
       <c r="D33">
-        <v>57725.09314597701</v>
+        <v>3050.086046467739</v>
       </c>
       <c r="E33">
-        <v>2947.322214887576</v>
+        <v>177.1620154274519</v>
       </c>
       <c r="F33">
-        <v>527.1698642588965</v>
+        <v>612.7463701800572</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>135.8</v>
+        <v>187.1</v>
       </c>
       <c r="B34">
-        <v>433035.4055477194</v>
+        <v>11568.37841349377</v>
       </c>
       <c r="C34">
-        <v>24653.96197581572</v>
+        <v>11321.13283735215</v>
       </c>
       <c r="D34">
-        <v>59449.25182445664</v>
+        <v>3234.429053119478</v>
       </c>
       <c r="E34">
-        <v>4472.937237151674</v>
+        <v>1229.741142621665</v>
       </c>
       <c r="F34">
-        <v>960.8375607224065</v>
+        <v>658.4036431496893</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>138.3</v>
+        <v>189.6</v>
       </c>
       <c r="B35">
-        <v>431924.7416315189</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>21816.25731751097</v>
+        <v>11384.4953028959</v>
       </c>
       <c r="D35">
-        <v>58220.34123181984</v>
+        <v>1792.627973393093</v>
       </c>
       <c r="E35">
-        <v>2378.863398815422</v>
+        <v>1090.370628702334</v>
       </c>
       <c r="F35">
-        <v>563.6417612491214</v>
+        <v>553.6832876818982</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>140.5</v>
+        <v>191.9</v>
       </c>
       <c r="B36">
-        <v>428281.3573852624</v>
+        <v>10914.29185958573</v>
       </c>
       <c r="C36">
-        <v>21762.27721820278</v>
+        <v>11697.98877119616</v>
       </c>
       <c r="D36">
-        <v>56274.49991029947</v>
+        <v>1866.970980044818</v>
       </c>
       <c r="E36">
-        <v>3074.478421079523</v>
+        <v>1642.949755896543</v>
       </c>
       <c r="F36">
-        <v>637.3094577126312</v>
+        <v>559.3405606515294</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>142.8</v>
+        <v>194.2</v>
       </c>
       <c r="B37">
-        <v>425165.546582358</v>
+        <v>14618.58371917135</v>
       </c>
       <c r="C37">
-        <v>22340.38893256241</v>
+        <v>13471.48223949641</v>
       </c>
       <c r="D37">
-        <v>53234.30216507361</v>
+        <v>2081.31398669655</v>
       </c>
       <c r="E37">
-        <v>2623.53048981017</v>
+        <v>985.5288830907562</v>
       </c>
       <c r="F37">
-        <v>690.6893221972094</v>
+        <v>724.9978336211615</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>145.1</v>
+        <v>196.5</v>
       </c>
       <c r="B38">
-        <v>425759.7357794535</v>
+        <v>13552.87557875708</v>
       </c>
       <c r="C38">
-        <v>20968.50064692204</v>
+        <v>12814.97570779667</v>
       </c>
       <c r="D38">
-        <v>51714.10441984779</v>
+        <v>825.6569933482751</v>
       </c>
       <c r="E38">
-        <v>2182.582558540818</v>
+        <v>268.1080102849692</v>
       </c>
       <c r="F38">
-        <v>674.0691866817867</v>
+        <v>470.6551065907927</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>147.4</v>
+        <v>198.8</v>
       </c>
       <c r="B39">
-        <v>422853.9249765489</v>
+        <v>18527.16743834282</v>
       </c>
       <c r="C39">
-        <v>22196.61236128167</v>
+        <v>11218.46917609692</v>
       </c>
       <c r="D39">
-        <v>47363.90667462193</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>2811.634627271466</v>
+        <v>1640.687137479179</v>
       </c>
       <c r="F39">
-        <v>787.4490511663652</v>
+        <v>606.3123795604249</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>149.7</v>
+        <v>201</v>
       </c>
       <c r="B40">
-        <v>420688.1141736445</v>
+        <v>13917.79443446818</v>
       </c>
       <c r="C40">
-        <v>22084.7240756413</v>
+        <v>11907.02814577542</v>
       </c>
       <c r="D40">
-        <v>46443.70892939609</v>
+        <v>1132.415049840798</v>
       </c>
       <c r="E40">
-        <v>2780.686696002118</v>
+        <v>719.2410852301643</v>
       </c>
       <c r="F40">
-        <v>840.8289156509435</v>
+        <v>1032.158466748768</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>152</v>
+        <v>203.6</v>
       </c>
       <c r="B41">
-        <v>418752.3033707401</v>
+        <v>29743.08088443466</v>
       </c>
       <c r="C41">
-        <v>21882.83579000093</v>
+        <v>13875.32510994093</v>
       </c>
       <c r="D41">
-        <v>41853.51118417025</v>
+        <v>352.5419269253543</v>
       </c>
       <c r="E41">
-        <v>2129.738764732765</v>
+        <v>573.8957507540604</v>
       </c>
       <c r="F41">
-        <v>834.2087801355216</v>
+        <v>727.249297062265</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>154.6</v>
+        <v>205.9</v>
       </c>
       <c r="B42">
-        <v>423049.2128978915</v>
+        <v>20147.37274402028</v>
       </c>
       <c r="C42">
-        <v>21447.22294536399</v>
+        <v>12928.81857824118</v>
       </c>
       <c r="D42">
-        <v>39540.24416782799</v>
+        <v>466.8849335770792</v>
       </c>
       <c r="E42">
-        <v>2559.101972863064</v>
+        <v>46.47487794827339</v>
       </c>
       <c r="F42">
-        <v>636.7251486833059</v>
+        <v>872.9065700318971</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>156.9</v>
+        <v>208.2</v>
       </c>
       <c r="B43">
-        <v>420473.402094987</v>
+        <v>30821.664603606</v>
       </c>
       <c r="C43">
-        <v>20835.33465972361</v>
+        <v>13442.31204654144</v>
       </c>
       <c r="D43">
-        <v>36160.04642260214</v>
+        <v>581.2279402288259</v>
       </c>
       <c r="E43">
-        <v>2798.154041593711</v>
+        <v>1589.054005142486</v>
       </c>
       <c r="F43">
-        <v>940.1050131678834</v>
+        <v>758.5638430015283</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>159.1</v>
+        <v>210.5</v>
       </c>
       <c r="B44">
-        <v>412120.0178487306</v>
+        <v>37195.95646319174</v>
       </c>
       <c r="C44">
-        <v>20091.35456041544</v>
+        <v>14695.80551484168</v>
       </c>
       <c r="D44">
-        <v>35864.20510108177</v>
+        <v>1895.570946880551</v>
       </c>
       <c r="E44">
-        <v>2983.769063857812</v>
+        <v>841.6331323366958</v>
       </c>
       <c r="F44">
-        <v>973.7727096313932</v>
+        <v>554.2211159711605</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>161.4</v>
+        <v>212.7</v>
       </c>
       <c r="B45">
-        <v>412794.2070458261</v>
+        <v>35156.5834593171</v>
       </c>
       <c r="C45">
-        <v>20679.46627477506</v>
+        <v>12044.3644845202</v>
       </c>
       <c r="D45">
-        <v>35294.00735585592</v>
+        <v>167.985996721327</v>
       </c>
       <c r="E45">
-        <v>3232.821132588457</v>
+        <v>110.1870800876818</v>
       </c>
       <c r="F45">
-        <v>797.1525741159713</v>
+        <v>650.0672031595038</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>163.7</v>
+        <v>215.3</v>
       </c>
       <c r="B46">
-        <v>406148.3962429216</v>
+        <v>47261.86990928357</v>
       </c>
       <c r="C46">
-        <v>21307.57798913469</v>
+        <v>11992.6614486857</v>
       </c>
       <c r="D46">
-        <v>32553.80961063007</v>
+        <v>1308.112873805891</v>
       </c>
       <c r="E46">
-        <v>3141.873201319108</v>
+        <v>444.8417456115735</v>
       </c>
       <c r="F46">
-        <v>880.5324386005497</v>
+        <v>715.1580334730006</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>166.3</v>
+        <v>217.6</v>
       </c>
       <c r="B47">
-        <v>408925.305770073</v>
+        <v>53736.16176886931</v>
       </c>
       <c r="C47">
-        <v>20381.96514449774</v>
+        <v>13856.15491698595</v>
       </c>
       <c r="D47">
-        <v>31920.54259428781</v>
+        <v>2592.455880457615</v>
       </c>
       <c r="E47">
-        <v>3061.236409449406</v>
+        <v>1027.420872805787</v>
       </c>
       <c r="F47">
-        <v>803.0488071483331</v>
+        <v>990.8153064426326</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>168.6</v>
+        <v>219.9</v>
       </c>
       <c r="B48">
-        <v>402119.4949671686</v>
+        <v>64620.45362845492</v>
       </c>
       <c r="C48">
-        <v>20480.07685885737</v>
+        <v>11599.64838528621</v>
       </c>
       <c r="D48">
-        <v>29800.34484906197</v>
+        <v>316.7988871093403</v>
       </c>
       <c r="E48">
-        <v>2570.288478180058</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>806.4286716329112</v>
+        <v>946.4725794122639</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>170.8</v>
+        <v>222.1</v>
       </c>
       <c r="B49">
-        <v>405386.1107209122</v>
+        <v>82971.08062458041</v>
       </c>
       <c r="C49">
-        <v>20746.09675954919</v>
+        <v>14658.20735496471</v>
       </c>
       <c r="D49">
-        <v>28504.50352754159</v>
+        <v>769.2139369501383</v>
       </c>
       <c r="E49">
-        <v>2285.903500444155</v>
+        <v>938.5539477509856</v>
       </c>
       <c r="F49">
-        <v>680.0963680964211</v>
+        <v>962.3186666006072</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>173.1</v>
+        <v>224.7</v>
       </c>
       <c r="B50">
-        <v>396830.2999180076</v>
+        <v>86626.36707454688</v>
       </c>
       <c r="C50">
-        <v>19864.20847390882</v>
+        <v>14976.50431913022</v>
       </c>
       <c r="D50">
-        <v>28264.30578231575</v>
+        <v>1139.340814034702</v>
       </c>
       <c r="E50">
-        <v>2074.955569174803</v>
+        <v>1323.208613274878</v>
       </c>
       <c r="F50">
-        <v>993.4762325809994</v>
+        <v>767.409496914104</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>175.3</v>
+        <v>227</v>
       </c>
       <c r="B51">
-        <v>408066.9156717511</v>
+        <v>117280.6589341325</v>
       </c>
       <c r="C51">
-        <v>20870.22837460064</v>
+        <v>16599.99778743048</v>
       </c>
       <c r="D51">
-        <v>26828.46446079538</v>
+        <v>2313.683820686419</v>
       </c>
       <c r="E51">
-        <v>1810.5705914389</v>
+        <v>1405.787740469088</v>
       </c>
       <c r="F51">
-        <v>837.1439290445084</v>
+        <v>993.066769883736</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>177.9</v>
+        <v>229.3</v>
       </c>
       <c r="B52">
-        <v>416973.8251989026</v>
+        <v>132894.9507937182</v>
       </c>
       <c r="C52">
-        <v>21534.6155299637</v>
+        <v>15313.49125573073</v>
       </c>
       <c r="D52">
-        <v>26285.19744445312</v>
+        <v>1208.026827338152</v>
       </c>
       <c r="E52">
-        <v>2059.933799569199</v>
+        <v>728.3668676633006</v>
       </c>
       <c r="F52">
-        <v>729.6602975922926</v>
+        <v>1068.724042853368</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>180.2</v>
+        <v>231.6</v>
       </c>
       <c r="B53">
-        <v>407188.0143959982</v>
+        <v>149839.2426533038</v>
       </c>
       <c r="C53">
-        <v>21392.72724432333</v>
+        <v>16036.98472403099</v>
       </c>
       <c r="D53">
-        <v>25454.99969922726</v>
+        <v>1122.369833989891</v>
       </c>
       <c r="E53">
-        <v>2448.985868299847</v>
+        <v>1880.945994857514</v>
       </c>
       <c r="F53">
-        <v>693.040162076871</v>
+        <v>694.3813158229996</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>182.5</v>
+        <v>234.2</v>
       </c>
       <c r="B54">
-        <v>395522.2035930937</v>
+        <v>178214.5291032703</v>
       </c>
       <c r="C54">
-        <v>20090.83895868295</v>
+        <v>15765.28168819649</v>
       </c>
       <c r="D54">
-        <v>23144.80195400142</v>
+        <v>1102.496711074447</v>
       </c>
       <c r="E54">
-        <v>1808.037937030498</v>
+        <v>585.6006603814062</v>
       </c>
       <c r="F54">
-        <v>566.4200265614492</v>
+        <v>609.4721461364962</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>184.8</v>
+        <v>236.5</v>
       </c>
       <c r="B55">
-        <v>398206.3927901892</v>
+        <v>206888.8209628561</v>
       </c>
       <c r="C55">
-        <v>19198.95067304258</v>
+        <v>16408.77515649673</v>
       </c>
       <c r="D55">
-        <v>23104.60420877558</v>
+        <v>1246.83971772618</v>
       </c>
       <c r="E55">
-        <v>1567.090005761142</v>
+        <v>1388.179787575616</v>
       </c>
       <c r="F55">
-        <v>839.7998910460266</v>
+        <v>955.1294191061284</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>187.1</v>
+        <v>238.7</v>
       </c>
       <c r="B56">
-        <v>403110.5819872848</v>
+        <v>256309.4479589814</v>
       </c>
       <c r="C56">
-        <v>20267.06238740221</v>
+        <v>16397.33412617525</v>
       </c>
       <c r="D56">
-        <v>22914.40646354973</v>
+        <v>2539.254767566963</v>
       </c>
       <c r="E56">
-        <v>2606.142074491794</v>
+        <v>1046.733735326605</v>
       </c>
       <c r="F56">
-        <v>883.1797555306049</v>
+        <v>790.9755062944718</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>189.6</v>
+        <v>241.4</v>
       </c>
       <c r="B57">
-        <v>390639.9180710842</v>
+        <v>285998.3992724082</v>
       </c>
       <c r="C57">
-        <v>20259.35772909746</v>
+        <v>15170.56558896251</v>
       </c>
       <c r="D57">
-        <v>21065.49587091294</v>
+        <v>2321.309601462475</v>
       </c>
       <c r="E57">
-        <v>2452.068236155545</v>
+        <v>895.4135802937244</v>
       </c>
       <c r="F57">
-        <v>775.9839560573208</v>
+        <v>675.8775223892573</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>191.9</v>
+        <v>243.6</v>
       </c>
       <c r="B58">
-        <v>400724.1072681798</v>
+        <v>313229.0262685337</v>
       </c>
       <c r="C58">
-        <v>20507.46944345708</v>
+        <v>16549.124558641</v>
       </c>
       <c r="D58">
-        <v>20765.2981256871</v>
+        <v>3933.724651303259</v>
       </c>
       <c r="E58">
-        <v>2991.120304886189</v>
+        <v>853.9675280447104</v>
       </c>
       <c r="F58">
-        <v>779.363820541898</v>
+        <v>871.7236095776007</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>194.2</v>
+        <v>245.9</v>
       </c>
       <c r="B59">
-        <v>403598.2964652752</v>
+        <v>359473.3181281192</v>
       </c>
       <c r="C59">
-        <v>22215.58115781671</v>
+        <v>17442.61802694126</v>
       </c>
       <c r="D59">
-        <v>20605.10038046126</v>
+        <v>2508.067657954984</v>
       </c>
       <c r="E59">
-        <v>2320.172373616841</v>
+        <v>1346.54665523892</v>
       </c>
       <c r="F59">
-        <v>942.7436850264763</v>
+        <v>937.3808825472317</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>196.5</v>
+        <v>248.2</v>
       </c>
       <c r="B60">
-        <v>401702.4856623708</v>
+        <v>409177.609987705</v>
       </c>
       <c r="C60">
-        <v>21493.69287217634</v>
+        <v>15586.11149524152</v>
       </c>
       <c r="D60">
-        <v>18974.9026352354</v>
+        <v>9692.410664606723</v>
       </c>
       <c r="E60">
-        <v>1589.224442347488</v>
+        <v>1419.125782433133</v>
       </c>
       <c r="F60">
-        <v>686.1235495110545</v>
+        <v>573.038155516864</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>198.8</v>
+        <v>250.8</v>
       </c>
       <c r="B61">
-        <v>405846.6748594663</v>
+        <v>451412.8964376714</v>
       </c>
       <c r="C61">
-        <v>19831.80458653596</v>
+        <v>16964.40845940702</v>
       </c>
       <c r="D61">
-        <v>17774.70489000956</v>
+        <v>4072.537541691287</v>
       </c>
       <c r="E61">
-        <v>2948.276511078136</v>
+        <v>663.780447957025</v>
       </c>
       <c r="F61">
-        <v>819.503413995633</v>
+        <v>688.1289858303608</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>201</v>
+        <v>253.4</v>
       </c>
       <c r="B62">
-        <v>400443.2906132099</v>
+        <v>514498.1828876378</v>
       </c>
       <c r="C62">
-        <v>20457.82448722778</v>
+        <v>16522.70542357252</v>
       </c>
       <c r="D62">
-        <v>18548.8635684892</v>
+        <v>2622.664418775836</v>
       </c>
       <c r="E62">
-        <v>2013.891533342234</v>
+        <v>688.4351134809176</v>
       </c>
       <c r="F62">
-        <v>1243.171110459143</v>
+        <v>663.2198161438574</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>203.6</v>
+        <v>255.7</v>
       </c>
       <c r="B63">
-        <v>415330.2001403613</v>
+        <v>551312.4747472235</v>
       </c>
       <c r="C63">
-        <v>22352.21164259085</v>
+        <v>20226.19889187279</v>
       </c>
       <c r="D63">
-        <v>17345.59655214694</v>
+        <v>4477.007425427568</v>
       </c>
       <c r="E63">
-        <v>1853.254741472532</v>
+        <v>1301.014240675131</v>
       </c>
       <c r="F63">
-        <v>935.6874790069261</v>
+        <v>688.8770891134886</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>205.9</v>
+        <v>258</v>
       </c>
       <c r="B64">
-        <v>404904.3893374568</v>
+        <v>629136.7666068092</v>
       </c>
       <c r="C64">
-        <v>21340.32335695047</v>
+        <v>17889.69236017303</v>
       </c>
       <c r="D64">
-        <v>17085.39880692108</v>
+        <v>3831.350432079307</v>
       </c>
       <c r="E64">
-        <v>1312.306810203183</v>
+        <v>1343.59336786934</v>
       </c>
       <c r="F64">
-        <v>1079.067343491504</v>
+        <v>794.5343620831209</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>208.2</v>
+        <v>260.3</v>
       </c>
       <c r="B65">
-        <v>414748.5785345524</v>
+        <v>659691.0584663948</v>
       </c>
       <c r="C65">
-        <v>21788.4350713101</v>
+        <v>17643.18582847329</v>
       </c>
       <c r="D65">
-        <v>16825.20106169524</v>
+        <v>2915.693438731032</v>
       </c>
       <c r="E65">
-        <v>2841.358878933831</v>
+        <v>796.172495063553</v>
       </c>
       <c r="F65">
-        <v>962.4472079760827</v>
+        <v>470.191635052753</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>210.5</v>
+        <v>262.5</v>
       </c>
       <c r="B66">
-        <v>420292.7677316478</v>
+        <v>689131.6854625202</v>
       </c>
       <c r="C66">
-        <v>22976.54678566972</v>
+        <v>14371.74479815179</v>
       </c>
       <c r="D66">
-        <v>17765.0033164694</v>
+        <v>1608.108488571816</v>
       </c>
       <c r="E66">
-        <v>2080.410947664479</v>
+        <v>1304.726442814539</v>
       </c>
       <c r="F66">
-        <v>755.8270724606608</v>
+        <v>366.0377222410963</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>212.7</v>
+        <v>265.5</v>
       </c>
       <c r="B67">
-        <v>417459.3834853914</v>
+        <v>705691.6313663278</v>
       </c>
       <c r="C67">
-        <v>20262.56668636155</v>
+        <v>17059.77975680431</v>
       </c>
       <c r="D67">
-        <v>15679.16199494902</v>
+        <v>3715.947192900159</v>
       </c>
       <c r="E67">
-        <v>1336.025969928576</v>
+        <v>1185.481826111338</v>
       </c>
       <c r="F67">
-        <v>849.4947689241709</v>
+        <v>440.3732956797464</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>215.3</v>
+        <v>267.8</v>
       </c>
       <c r="B68">
-        <v>428626.2930125428</v>
+        <v>728195.9232259134</v>
       </c>
       <c r="C68">
-        <v>20136.9538417246</v>
+        <v>18873.27322510455</v>
       </c>
       <c r="D68">
-        <v>16395.89497860676</v>
+        <v>4880.290199551891</v>
       </c>
       <c r="E68">
-        <v>1655.389178058875</v>
+        <v>858.0609533055508</v>
       </c>
       <c r="F68">
-        <v>912.0111374719542</v>
+        <v>416.0305686493776</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>217.6</v>
+        <v>270.1</v>
       </c>
       <c r="B69">
-        <v>434270.4822096384</v>
+        <v>733810.2150854992</v>
       </c>
       <c r="C69">
-        <v>21935.06555608424</v>
+        <v>19016.7666934048</v>
       </c>
       <c r="D69">
-        <v>17305.69723338092</v>
+        <v>3664.633206203616</v>
       </c>
       <c r="E69">
-        <v>2224.441246789526</v>
+        <v>720.6400804997638</v>
       </c>
       <c r="F69">
-        <v>1185.391001956532</v>
+        <v>801.6878416190098</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>219.9</v>
+        <v>272.4</v>
       </c>
       <c r="B70">
-        <v>444324.671406734</v>
+        <v>776364.5069450847</v>
       </c>
       <c r="C70">
-        <v>19613.17727044386</v>
+        <v>19280.26016170508</v>
       </c>
       <c r="D70">
-        <v>14655.49948815506</v>
+        <v>5008.976212855341</v>
       </c>
       <c r="E70">
-        <v>1183.493315520174</v>
+        <v>1153.219207693977</v>
       </c>
       <c r="F70">
-        <v>1138.770866441111</v>
+        <v>737.345114588642</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>222.1</v>
+        <v>274.6</v>
       </c>
       <c r="B71">
-        <v>461881.2871604775</v>
+        <v>754675.1339412102</v>
       </c>
       <c r="C71">
-        <v>22609.19717113568</v>
+        <v>19458.81913138356</v>
       </c>
       <c r="D71">
-        <v>14749.65816663469</v>
+        <v>3721.391262696125</v>
       </c>
       <c r="E71">
-        <v>2109.108337784275</v>
+        <v>1071.773155444962</v>
       </c>
       <c r="F71">
-        <v>1152.43856290462</v>
+        <v>383.1912017769853</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>224.7</v>
+        <v>276.8</v>
       </c>
       <c r="B72">
-        <v>464598.1966876289</v>
+        <v>687205.7609373357</v>
       </c>
       <c r="C72">
-        <v>22853.58432649874</v>
+        <v>19027.37810106207</v>
       </c>
       <c r="D72">
-        <v>14696.39115029243</v>
+        <v>4803.806312536908</v>
       </c>
       <c r="E72">
-        <v>2478.471545914573</v>
+        <v>1380.327103195948</v>
       </c>
       <c r="F72">
-        <v>954.9549314524039</v>
+        <v>519.0372889653286</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>227</v>
+        <v>279.1</v>
       </c>
       <c r="B73">
-        <v>494422.3858847244</v>
+        <v>619630.0527969213</v>
       </c>
       <c r="C73">
-        <v>24411.69604085836</v>
+        <v>19920.87156936232</v>
       </c>
       <c r="D73">
-        <v>15496.19340506659</v>
+        <v>5038.14931918864</v>
       </c>
       <c r="E73">
-        <v>2547.523614645217</v>
+        <v>472.9062303901578</v>
       </c>
       <c r="F73">
-        <v>1178.334795936982</v>
+        <v>614.6945619349599</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>229.3</v>
+        <v>281.7</v>
       </c>
       <c r="B74">
-        <v>509206.57508182</v>
+        <v>555585.3392468878</v>
       </c>
       <c r="C74">
-        <v>23059.80775521799</v>
+        <v>21909.16853352784</v>
       </c>
       <c r="D74">
-        <v>14015.99565984074</v>
+        <v>6028.276196273204</v>
       </c>
       <c r="E74">
-        <v>1856.575683375869</v>
+        <v>1797.56089591405</v>
       </c>
       <c r="F74">
-        <v>1251.71466042156</v>
+        <v>379.7853922484566</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>231.6</v>
+        <v>284</v>
       </c>
       <c r="B75">
-        <v>525320.7642789155</v>
+        <v>507059.6311064736</v>
       </c>
       <c r="C75">
-        <v>23717.91946957762</v>
+        <v>20592.66200182808</v>
       </c>
       <c r="D75">
-        <v>13555.7979146149</v>
+        <v>6602.619202924936</v>
       </c>
       <c r="E75">
-        <v>2995.627752106516</v>
+        <v>1630.140023108263</v>
       </c>
       <c r="F75">
-        <v>875.0945249061386</v>
+        <v>575.4426652180887</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>234.2</v>
+        <v>286.3</v>
       </c>
       <c r="B76">
-        <v>552757.6738060669</v>
+        <v>458783.9229660593</v>
       </c>
       <c r="C76">
-        <v>23372.30662494068</v>
+        <v>21836.15547012834</v>
       </c>
       <c r="D76">
-        <v>13112.53089827264</v>
+        <v>4996.962209576675</v>
       </c>
       <c r="E76">
-        <v>1684.990960236818</v>
+        <v>752.7191503024765</v>
       </c>
       <c r="F76">
-        <v>787.6108934539221</v>
+        <v>561.0999381877209</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>236.5</v>
+        <v>288.6</v>
       </c>
       <c r="B77">
-        <v>580601.8630031624</v>
+        <v>418178.2148256449</v>
       </c>
       <c r="C77">
-        <v>23950.4183393003</v>
+        <v>24469.64893842858</v>
       </c>
       <c r="D77">
-        <v>12882.3331530468</v>
+        <v>5331.3052162284</v>
       </c>
       <c r="E77">
-        <v>2474.043028967462</v>
+        <v>995.2982774966895</v>
       </c>
       <c r="F77">
-        <v>1130.9907579385</v>
+        <v>616.7572111573521</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>238.7</v>
+        <v>291.2</v>
       </c>
       <c r="B78">
-        <v>629228.478756906</v>
+        <v>376733.5012756113</v>
       </c>
       <c r="C78">
-        <v>23876.43823999212</v>
+        <v>24657.9459025941</v>
       </c>
       <c r="D78">
-        <v>13816.49183152641</v>
+        <v>5581.432093312957</v>
       </c>
       <c r="E78">
-        <v>2119.658051231564</v>
+        <v>1209.952943020582</v>
       </c>
       <c r="F78">
-        <v>964.6584544020103</v>
+        <v>551.8480414708488</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>241.4</v>
+        <v>293.5</v>
       </c>
       <c r="B79">
-        <v>657942.9617274094</v>
+        <v>357917.793135197</v>
       </c>
       <c r="C79">
-        <v>22572.91720902299</v>
+        <v>27821.43937089435</v>
       </c>
       <c r="D79">
-        <v>13158.86839147868</v>
+        <v>7825.775099964681</v>
       </c>
       <c r="E79">
-        <v>1952.458305828412</v>
+        <v>1582.532070214791</v>
       </c>
       <c r="F79">
-        <v>846.886990970862</v>
+        <v>577.505314440481</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>243.6</v>
+        <v>295.8</v>
       </c>
       <c r="B80">
-        <v>684379.577481153</v>
+        <v>341212.0849947827</v>
       </c>
       <c r="C80">
-        <v>23888.93710971481</v>
+        <v>30234.9328391946</v>
       </c>
       <c r="D80">
-        <v>14413.02706995832</v>
+        <v>6960.118106616414</v>
       </c>
       <c r="E80">
-        <v>1898.07332809251</v>
+        <v>525.1111974090045</v>
       </c>
       <c r="F80">
-        <v>1040.554687434372</v>
+        <v>663.1625874101122</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>245.9</v>
+        <v>298.1</v>
       </c>
       <c r="B81">
-        <v>729793.7666782485</v>
+        <v>302336.3768543684</v>
       </c>
       <c r="C81">
-        <v>24717.04882407443</v>
+        <v>33708.42630749486</v>
       </c>
       <c r="D81">
-        <v>12612.82932473247</v>
+        <v>8474.461113268138</v>
       </c>
       <c r="E81">
-        <v>2377.125396823157</v>
+        <v>627.6903246032175</v>
       </c>
       <c r="F81">
-        <v>1103.93455191895</v>
+        <v>488.8198603797443</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>248.2</v>
+        <v>300.4</v>
       </c>
       <c r="B82">
-        <v>778667.9558753441</v>
+        <v>285880.6687139542</v>
       </c>
       <c r="C82">
-        <v>22795.16053843407</v>
+        <v>34811.91977579512</v>
       </c>
       <c r="D82">
-        <v>19422.63157950662</v>
+        <v>6908.804119919878</v>
       </c>
       <c r="E82">
-        <v>2436.177465553805</v>
+        <v>1050.269451797431</v>
       </c>
       <c r="F82">
-        <v>737.3144164035285</v>
+        <v>354.4771333493765</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>250.8</v>
+        <v>302.9</v>
       </c>
       <c r="B83">
-        <v>819964.8654024954</v>
+        <v>265102.2903004603</v>
       </c>
       <c r="C83">
-        <v>24099.54769379711</v>
+        <v>38185.28224133888</v>
       </c>
       <c r="D83">
-        <v>13379.36456316436</v>
+        <v>7157.003040193493</v>
       </c>
       <c r="E83">
-        <v>1665.540673684103</v>
+        <v>460.8989378780993</v>
       </c>
       <c r="F83">
-        <v>849.8307849513118</v>
+        <v>259.7567778815844</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>253.4</v>
+        <v>305.2</v>
       </c>
       <c r="B84">
-        <v>882111.774929647</v>
+        <v>245936.582160046</v>
       </c>
       <c r="C84">
-        <v>23583.93484916018</v>
+        <v>38228.77570963911</v>
       </c>
       <c r="D84">
-        <v>11506.0975468221</v>
+        <v>6501.346046845232</v>
       </c>
       <c r="E84">
-        <v>1674.903881814402</v>
+        <v>743.4780650723087</v>
       </c>
       <c r="F84">
-        <v>822.3471534990962</v>
+        <v>445.4140508512166</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>255.7</v>
+        <v>307.5</v>
       </c>
       <c r="B85">
-        <v>918095.9641267423</v>
+        <v>215950.8740196316</v>
       </c>
       <c r="C85">
-        <v>27222.04656351981</v>
+        <v>38492.26917793937</v>
       </c>
       <c r="D85">
-        <v>12985.89980159626</v>
+        <v>6635.689053496957</v>
       </c>
       <c r="E85">
-        <v>2273.955950545053</v>
+        <v>1776.057192266522</v>
       </c>
       <c r="F85">
-        <v>845.7270179836745</v>
+        <v>461.0713238208479</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>258</v>
+        <v>309.7</v>
       </c>
       <c r="B86">
-        <v>995090.1533238381</v>
+        <v>216861.5010157571</v>
       </c>
       <c r="C86">
-        <v>24820.15827787944</v>
+        <v>41960.82814761788</v>
       </c>
       <c r="D86">
-        <v>11965.70205637042</v>
+        <v>5958.104103337741</v>
       </c>
       <c r="E86">
-        <v>2303.008019275701</v>
+        <v>1124.611140017507</v>
       </c>
       <c r="F86">
-        <v>949.1068824682526</v>
+        <v>586.9174110091911</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>260.3</v>
+        <v>312.1</v>
       </c>
       <c r="B87">
-        <v>1024814.342520933</v>
+        <v>215549.457738803</v>
       </c>
       <c r="C87">
-        <v>24508.26999223906</v>
+        <v>43169.25611453988</v>
       </c>
       <c r="D87">
-        <v>10675.50431114456</v>
+        <v>6904.375066800414</v>
       </c>
       <c r="E87">
-        <v>1742.060088006348</v>
+        <v>1501.215446654944</v>
       </c>
       <c r="F87">
-        <v>622.4867469528308</v>
+        <v>602.3858697601112</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>262.5</v>
+        <v>314.7</v>
       </c>
       <c r="B88">
-        <v>1053460.958274677</v>
+        <v>198154.7441887694</v>
       </c>
       <c r="C88">
-        <v>21174.28989293089</v>
+        <v>37857.5530787054</v>
       </c>
       <c r="D88">
-        <v>9009.662989624194</v>
+        <v>5584.50194388497</v>
       </c>
       <c r="E88">
-        <v>2237.675110270446</v>
+        <v>755.8701121788404</v>
       </c>
       <c r="F88">
-        <v>516.1544434163399</v>
+        <v>667.4767000736088</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>265.5</v>
+        <v>316.6</v>
       </c>
       <c r="B89">
-        <v>1068938.161575236</v>
+        <v>190954.3765945141</v>
       </c>
       <c r="C89">
-        <v>23777.04430296518</v>
+        <v>36731.30855251863</v>
       </c>
       <c r="D89">
-        <v>10628.97027846004</v>
+        <v>6121.133123292922</v>
       </c>
       <c r="E89">
-        <v>2100.786504266945</v>
+        <v>1072.348521600143</v>
       </c>
       <c r="F89">
-        <v>587.5194840483986</v>
+        <v>383.8892299180867</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>267.8</v>
+        <v>319.2</v>
       </c>
       <c r="B90">
-        <v>1090612.350772332</v>
+        <v>185819.6630444806</v>
       </c>
       <c r="C90">
-        <v>25525.15601732481</v>
+        <v>30719.60551668415</v>
       </c>
       <c r="D90">
-        <v>11418.77253323419</v>
+        <v>7581.260000377493</v>
       </c>
       <c r="E90">
-        <v>1759.838572997597</v>
+        <v>1467.003187124039</v>
       </c>
       <c r="F90">
-        <v>560.8993485329769</v>
+        <v>468.9800602315834</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>270.1</v>
+        <v>321.5</v>
       </c>
       <c r="B91">
-        <v>1095396.539969428</v>
+        <v>196623.9549040663</v>
       </c>
       <c r="C91">
-        <v>25603.26773168442</v>
+        <v>27723.0989849844</v>
       </c>
       <c r="D91">
-        <v>9828.574788008347</v>
+        <v>8085.603007029218</v>
       </c>
       <c r="E91">
-        <v>1608.89064172824</v>
+        <v>1739.582314318248</v>
       </c>
       <c r="F91">
-        <v>944.2792130175552</v>
+        <v>384.6373332012156</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>272.4</v>
+        <v>323.8</v>
       </c>
       <c r="B92">
-        <v>1137120.729166523</v>
+        <v>199718.246763652</v>
       </c>
       <c r="C92">
-        <v>25801.37944604407</v>
+        <v>23306.59245328465</v>
       </c>
       <c r="D92">
-        <v>10798.37704278251</v>
+        <v>9119.94601368095</v>
       </c>
       <c r="E92">
-        <v>2027.942710458893</v>
+        <v>1102.161441512458</v>
       </c>
       <c r="F92">
-        <v>877.6590775021335</v>
+        <v>430.2946061708468</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>274.6</v>
+        <v>326.4</v>
       </c>
       <c r="B93">
-        <v>1114637.344920266</v>
+        <v>197123.5332136184</v>
       </c>
       <c r="C93">
-        <v>25917.39934673587</v>
+        <v>20064.88941745017</v>
       </c>
       <c r="D93">
-        <v>9152.535721262138</v>
+        <v>7590.072890765514</v>
       </c>
       <c r="E93">
-        <v>1933.557732722989</v>
+        <v>1356.816107036354</v>
       </c>
       <c r="F93">
-        <v>521.3267739656424</v>
+        <v>675.3854364843444</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>276.8</v>
+        <v>328.3</v>
       </c>
       <c r="B94">
-        <v>1046373.96067401</v>
+        <v>195373.165619363</v>
       </c>
       <c r="C94">
-        <v>25423.41924742769</v>
+        <v>17368.64489126342</v>
       </c>
       <c r="D94">
-        <v>9876.694399741755</v>
+        <v>8246.704070173459</v>
       </c>
       <c r="E94">
-        <v>2229.172754987087</v>
+        <v>1963.294516457657</v>
       </c>
       <c r="F94">
-        <v>654.9944704291522</v>
+        <v>681.7979663288223</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>279.1</v>
+        <v>330.9</v>
       </c>
       <c r="B95">
-        <v>977968.1498711054</v>
+        <v>199398.4520693295</v>
       </c>
       <c r="C95">
-        <v>26251.53096178732</v>
+        <v>14376.94185542893</v>
       </c>
       <c r="D95">
-        <v>9736.496654515915</v>
+        <v>7596.830947258029</v>
       </c>
       <c r="E95">
-        <v>1308.224823717738</v>
+        <v>2877.949181981553</v>
       </c>
       <c r="F95">
-        <v>748.3743349137295</v>
+        <v>256.8887966423191</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>281.7</v>
+        <v>333.2</v>
       </c>
       <c r="B96">
-        <v>912985.0593982571</v>
+        <v>209772.7439289152</v>
       </c>
       <c r="C96">
-        <v>28165.91811715039</v>
+        <v>26370.43532372918</v>
       </c>
       <c r="D96">
-        <v>10303.22963817366</v>
+        <v>9971.173953909754</v>
       </c>
       <c r="E96">
-        <v>2617.588031848037</v>
+        <v>3170.528309175762</v>
       </c>
       <c r="F96">
-        <v>510.8907034615139</v>
+        <v>442.5460696119512</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>284</v>
+        <v>335.8</v>
       </c>
       <c r="B97">
-        <v>863629.2485953526</v>
+        <v>191168.0303788816</v>
       </c>
       <c r="C97">
-        <v>26784.02983151</v>
+        <v>14598.73228789468</v>
       </c>
       <c r="D97">
-        <v>10503.0318929478</v>
+        <v>6391.300830994311</v>
       </c>
       <c r="E97">
-        <v>2436.640100578685</v>
+        <v>3665.182974699655</v>
       </c>
       <c r="F97">
-        <v>704.2705679460921</v>
+        <v>247.6368999254479</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>286.3</v>
+        <v>338.1</v>
       </c>
       <c r="B98">
-        <v>814523.4377924481</v>
+        <v>241322.3222384674</v>
       </c>
       <c r="C98">
-        <v>27962.14154586964</v>
+        <v>18772.22575619494</v>
       </c>
       <c r="D98">
-        <v>8522.834147721958</v>
+        <v>11365.64383764604</v>
       </c>
       <c r="E98">
-        <v>1545.692169309332</v>
+        <v>5787.762101893868</v>
       </c>
       <c r="F98">
-        <v>687.6504324306703</v>
+        <v>473.2941728950791</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>288.6</v>
+        <v>340.7</v>
       </c>
       <c r="B99">
-        <v>773087.6269895437</v>
+        <v>204227.6086884337</v>
       </c>
       <c r="C99">
-        <v>30530.25326022926</v>
+        <v>16960.52272036044</v>
       </c>
       <c r="D99">
-        <v>8482.636402496119</v>
+        <v>9445.770714730606</v>
       </c>
       <c r="E99">
-        <v>1774.744238039983</v>
+        <v>6192.416767417761</v>
       </c>
       <c r="F99">
-        <v>741.0302969152486</v>
+        <v>678.3850032085759</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>291.2</v>
+        <v>343</v>
       </c>
       <c r="B100">
-        <v>730704.5365166951</v>
+        <v>203001.9005480195</v>
       </c>
       <c r="C100">
-        <v>30644.64041559233</v>
+        <v>16704.01618866069</v>
       </c>
       <c r="D100">
-        <v>8309.369386153863</v>
+        <v>10480.11372138234</v>
       </c>
       <c r="E100">
-        <v>1974.107446170282</v>
+        <v>8074.995894611973</v>
       </c>
       <c r="F100">
-        <v>673.546665463032</v>
+        <v>534.042276178208</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>293.5</v>
+        <v>345.3</v>
       </c>
       <c r="B101">
-        <v>711058.7257137906</v>
+        <v>206086.1924076051</v>
       </c>
       <c r="C101">
-        <v>33742.75212995194</v>
+        <v>14247.50965696095</v>
       </c>
       <c r="D101">
-        <v>10179.17164092801</v>
+        <v>10204.45672803408</v>
       </c>
       <c r="E101">
-        <v>2333.15951490093</v>
+        <v>11247.57502180618</v>
       </c>
       <c r="F101">
-        <v>696.9265299476103</v>
+        <v>369.6995491478401</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>295.8</v>
+        <v>347.6</v>
       </c>
       <c r="B102">
-        <v>693522.9149108862</v>
+        <v>239560.4842671908</v>
       </c>
       <c r="C102">
-        <v>36090.86384431159</v>
+        <v>15331.00312526121</v>
       </c>
       <c r="D102">
-        <v>8938.973895702162</v>
+        <v>12708.7997346858</v>
       </c>
       <c r="E102">
-        <v>1262.211583631577</v>
+        <v>14160.15414900039</v>
       </c>
       <c r="F102">
-        <v>780.3063944321885</v>
+        <v>465.3568221174713</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>298.1</v>
+        <v>349.9</v>
       </c>
       <c r="B103">
-        <v>653817.1041079815</v>
+        <v>239104.7761267766</v>
       </c>
       <c r="C103">
-        <v>39498.9755586712</v>
+        <v>17874.49659356146</v>
       </c>
       <c r="D103">
-        <v>10078.77615047632</v>
+        <v>12953.14274133753</v>
       </c>
       <c r="E103">
-        <v>1351.263652362225</v>
+        <v>18752.73327619461</v>
       </c>
       <c r="F103">
-        <v>603.6862589167667</v>
+        <v>411.0140950871036</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>300.4</v>
+        <v>352.1</v>
       </c>
       <c r="B104">
-        <v>636531.2933050771</v>
+        <v>256095.4031229019</v>
       </c>
       <c r="C104">
-        <v>40537.08727303084</v>
+        <v>15703.05556323996</v>
       </c>
       <c r="D104">
-        <v>8138.578405250486</v>
+        <v>12135.55779117832</v>
       </c>
       <c r="E104">
-        <v>1760.315721092877</v>
+        <v>22561.28722394559</v>
       </c>
       <c r="F104">
-        <v>467.0661234013451</v>
+        <v>686.8601822754468</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>302.9</v>
+        <v>354.4</v>
       </c>
       <c r="B105">
-        <v>614850.6293888767</v>
+        <v>264409.6949824877</v>
       </c>
       <c r="C105">
-        <v>43839.3826147261</v>
+        <v>16056.54903154023</v>
       </c>
       <c r="D105">
-        <v>7979.667812613698</v>
+        <v>12039.90079783004</v>
       </c>
       <c r="E105">
-        <v>1156.241882756625</v>
+        <v>28923.86635113981</v>
       </c>
       <c r="F105">
-        <v>369.8703239280601</v>
+        <v>392.5174552450782</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>305.2</v>
+        <v>357</v>
       </c>
       <c r="B106">
-        <v>594854.8185859723</v>
+        <v>286664.9814324541</v>
       </c>
       <c r="C106">
-        <v>43817.49432908573</v>
+        <v>14294.84599570572</v>
       </c>
       <c r="D106">
-        <v>6949.470067387843</v>
+        <v>12020.0276749146</v>
       </c>
       <c r="E106">
-        <v>1425.293951487273</v>
+        <v>32898.5210166637</v>
       </c>
       <c r="F106">
-        <v>553.2501884126383</v>
+        <v>497.6082855585757</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>307.5</v>
+        <v>359.3</v>
       </c>
       <c r="B107">
-        <v>564039.0077830676</v>
+        <v>331859.2732920398</v>
       </c>
       <c r="C107">
-        <v>44015.60604344534</v>
+        <v>17708.33946400597</v>
       </c>
       <c r="D107">
-        <v>6709.272322162</v>
+        <v>16134.37068156635</v>
       </c>
       <c r="E107">
-        <v>2444.34602021792</v>
+        <v>46491.10014385791</v>
       </c>
       <c r="F107">
-        <v>566.6300528972166</v>
+        <v>513.265558528207</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>309.7</v>
+        <v>361.6</v>
       </c>
       <c r="B108">
-        <v>564155.6235368112</v>
+        <v>379473.5651516254</v>
       </c>
       <c r="C108">
-        <v>47421.62594413717</v>
+        <v>16921.83293230623</v>
       </c>
       <c r="D108">
-        <v>5673.431000641616</v>
+        <v>16658.71368821806</v>
       </c>
       <c r="E108">
-        <v>1779.961042482022</v>
+        <v>60833.67927105213</v>
       </c>
       <c r="F108">
-        <v>690.2977493607254</v>
+        <v>548.9228314978391</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>312.1</v>
+        <v>363.9</v>
       </c>
       <c r="B109">
-        <v>561977.3861772588</v>
+        <v>430017.8570112112</v>
       </c>
       <c r="C109">
-        <v>48561.82947216459</v>
+        <v>18775.32640060649</v>
       </c>
       <c r="D109">
-        <v>6228.876831710302</v>
+        <v>19703.0566948698</v>
       </c>
       <c r="E109">
-        <v>2142.450157679215</v>
+        <v>75836.25839824633</v>
       </c>
       <c r="F109">
-        <v>703.3897818663721</v>
+        <v>624.5801044674704</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>314.7</v>
+        <v>366.5</v>
       </c>
       <c r="B110">
-        <v>543644.2957044103</v>
+        <v>467313.1434611776</v>
       </c>
       <c r="C110">
-        <v>43176.21662752766</v>
+        <v>17963.62336477199</v>
       </c>
       <c r="D110">
-        <v>4485.609815368047</v>
+        <v>21293.18357195436</v>
       </c>
       <c r="E110">
-        <v>1381.813365809518</v>
+        <v>98950.91306377022</v>
       </c>
       <c r="F110">
-        <v>765.9061504141565</v>
+        <v>939.6709347809669</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>316.6</v>
+        <v>368.7</v>
       </c>
       <c r="B111">
-        <v>535758.1911280977</v>
+        <v>547883.770457303</v>
       </c>
       <c r="C111">
-        <v>41995.96108721604</v>
+        <v>16802.1823344505</v>
       </c>
       <c r="D111">
-        <v>4712.837764964079</v>
+        <v>23155.59862179514</v>
       </c>
       <c r="E111">
-        <v>1687.117248673964</v>
+        <v>125739.4670115212</v>
       </c>
       <c r="F111">
-        <v>480.4373428144603</v>
+        <v>745.5170219693114</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>319.2</v>
+        <v>371</v>
       </c>
       <c r="B112">
-        <v>529685.1006552493</v>
+        <v>634548.0623168887</v>
       </c>
       <c r="C112">
-        <v>35910.34824257909</v>
+        <v>17335.67580275076</v>
       </c>
       <c r="D112">
-        <v>5749.570748621823</v>
+        <v>23719.94162844688</v>
       </c>
       <c r="E112">
-        <v>2066.480456804263</v>
+        <v>165962.0461387155</v>
       </c>
       <c r="F112">
-        <v>562.9537113622446</v>
+        <v>781.1742949389426</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>321.5</v>
+        <v>373.3</v>
       </c>
       <c r="B113">
-        <v>539659.2898523449</v>
+        <v>799452.3541764745</v>
       </c>
       <c r="C113">
-        <v>32848.45995693873</v>
+        <v>19809.16927105101</v>
       </c>
       <c r="D113">
-        <v>5879.37300339598</v>
+        <v>31534.28463509861</v>
       </c>
       <c r="E113">
-        <v>2325.532525534911</v>
+        <v>209634.6252659097</v>
       </c>
       <c r="F113">
-        <v>476.333575846822</v>
+        <v>836.8315679085747</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>323.8</v>
+        <v>375.6</v>
       </c>
       <c r="B114">
-        <v>541923.4790494402</v>
+        <v>900286.6460360599</v>
       </c>
       <c r="C114">
-        <v>28366.57167129836</v>
+        <v>20072.66273935125</v>
       </c>
       <c r="D114">
-        <v>6539.175258170137</v>
+        <v>36348.62764175032</v>
       </c>
       <c r="E114">
-        <v>1674.584594265562</v>
+        <v>251297.2043931038</v>
       </c>
       <c r="F114">
-        <v>519.7134403314002</v>
+        <v>922.488840878206</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>326.4</v>
+        <v>377.9</v>
       </c>
       <c r="B115">
-        <v>538390.3885765917</v>
+        <v>1019060.937895646</v>
       </c>
       <c r="C115">
-        <v>25050.95882666143</v>
+        <v>20626.15620765152</v>
       </c>
       <c r="D115">
-        <v>4585.908241827881</v>
+        <v>37662.97064840205</v>
       </c>
       <c r="E115">
-        <v>1913.947802395861</v>
+        <v>288589.7835202981</v>
       </c>
       <c r="F115">
-        <v>762.2298088791846</v>
+        <v>818.1461138478381</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>328.3</v>
+        <v>380.2</v>
       </c>
       <c r="B116">
-        <v>535954.2840002794</v>
+        <v>1095005.229755232</v>
       </c>
       <c r="C116">
-        <v>22300.70328634981</v>
+        <v>19709.64967595178</v>
       </c>
       <c r="D116">
-        <v>4933.136191423913</v>
+        <v>42137.31365505378</v>
       </c>
       <c r="E116">
-        <v>2509.251685260307</v>
+        <v>301852.3626474923</v>
       </c>
       <c r="F116">
-        <v>766.7610012794884</v>
+        <v>913.8033868174693</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>330.9</v>
+        <v>382.8</v>
       </c>
       <c r="B117">
-        <v>539041.1935274309</v>
+        <v>1108250.516205198</v>
       </c>
       <c r="C117">
-        <v>19235.09044171286</v>
+        <v>22147.94664011726</v>
       </c>
       <c r="D117">
-        <v>3859.869175081658</v>
+        <v>44497.44053213837</v>
       </c>
       <c r="E117">
-        <v>3408.61489339061</v>
+        <v>286157.0173130161</v>
       </c>
       <c r="F117">
-        <v>339.2773698272717</v>
+        <v>738.8942171309669</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>333.2</v>
+        <v>385</v>
       </c>
       <c r="B118">
-        <v>548585.3827245263</v>
+        <v>1056931.143201323</v>
       </c>
       <c r="C118">
-        <v>31163.20215607249</v>
+        <v>18656.50560979578</v>
       </c>
       <c r="D118">
-        <v>5859.671429855814</v>
+        <v>41149.85558197914</v>
       </c>
       <c r="E118">
-        <v>3687.666962121257</v>
+        <v>248325.5712607672</v>
       </c>
       <c r="F118">
-        <v>522.6572343118501</v>
+        <v>914.7403043193094</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>335.8</v>
+        <v>387.3</v>
       </c>
       <c r="B119">
-        <v>529042.2922516777</v>
+        <v>1002055.435060909</v>
       </c>
       <c r="C119">
-        <v>19317.58931143554</v>
+        <v>21729.99907809603</v>
       </c>
       <c r="D119">
-        <v>1856.404413513541</v>
+        <v>41794.19858863086</v>
       </c>
       <c r="E119">
-        <v>4167.030170251552</v>
+        <v>222768.1503879614</v>
       </c>
       <c r="F119">
-        <v>325.1736028596343</v>
+        <v>590.3975772889415</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>338.1</v>
+        <v>389.6</v>
       </c>
       <c r="B120">
-        <v>578366.4814487733</v>
+        <v>889939.7269204947</v>
       </c>
       <c r="C120">
-        <v>23425.70102579517</v>
+        <v>20313.49254639629</v>
       </c>
       <c r="D120">
-        <v>6456.206668287701</v>
+        <v>43718.54159528259</v>
       </c>
       <c r="E120">
-        <v>6276.082238982198</v>
+        <v>195040.7295151556</v>
       </c>
       <c r="F120">
-        <v>548.5534673442125</v>
+        <v>626.0548502585737</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>340.7</v>
+        <v>391.9</v>
       </c>
       <c r="B121">
-        <v>540333.3909759249</v>
+        <v>825394.0187800804</v>
       </c>
       <c r="C121">
-        <v>21540.08818115824</v>
+        <v>19546.98601469655</v>
       </c>
       <c r="D121">
-        <v>4112.939651945442</v>
+        <v>45372.88460193432</v>
       </c>
       <c r="E121">
-        <v>6665.445447112501</v>
+        <v>177583.3086423498</v>
       </c>
       <c r="F121">
-        <v>751.0698358919961</v>
+        <v>541.712123228205</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>343</v>
+        <v>394.2</v>
       </c>
       <c r="B122">
-        <v>538277.5801730204</v>
+        <v>785978.3106396662</v>
       </c>
       <c r="C122">
-        <v>21218.19989551785</v>
+        <v>22340.4794829968</v>
       </c>
       <c r="D122">
-        <v>4772.741906719602</v>
+        <v>49297.22760858605</v>
       </c>
       <c r="E122">
-        <v>8534.497515843148</v>
+        <v>164615.8877695441</v>
       </c>
       <c r="F122">
-        <v>604.4497003765742</v>
+        <v>377.3693961978371</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>345.3</v>
+        <v>396.8</v>
       </c>
       <c r="B123">
-        <v>540531.7693701158</v>
+        <v>738223.5970896325</v>
       </c>
       <c r="C123">
-        <v>18696.31160987748</v>
+        <v>20318.7764471623</v>
       </c>
       <c r="D123">
-        <v>4122.544161493744</v>
+        <v>55417.35448567061</v>
       </c>
       <c r="E123">
-        <v>11693.5495845738</v>
+        <v>153980.5424350679</v>
       </c>
       <c r="F123">
-        <v>437.8295648611524</v>
+        <v>412.4602265113338</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>347.6</v>
+        <v>399</v>
       </c>
       <c r="B124">
-        <v>573175.9585672114</v>
+        <v>696104.2240857579</v>
       </c>
       <c r="C124">
-        <v>19714.42332423711</v>
+        <v>20937.3354168408</v>
       </c>
       <c r="D124">
-        <v>6252.346416267905</v>
+        <v>60619.7695355114</v>
       </c>
       <c r="E124">
-        <v>14592.60165330445</v>
+        <v>141279.0963828189</v>
       </c>
       <c r="F124">
-        <v>531.2094293457308</v>
+        <v>738.3063136996772</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>349.9</v>
+        <v>401.3</v>
       </c>
       <c r="B125">
-        <v>571890.147764307</v>
+        <v>651008.5159453435</v>
       </c>
       <c r="C125">
-        <v>22192.53503859676</v>
+        <v>15740.82888514105</v>
       </c>
       <c r="D125">
-        <v>6122.148671042065</v>
+        <v>64194.11254216311</v>
       </c>
       <c r="E125">
-        <v>19171.65372203509</v>
+        <v>125111.6755100131</v>
       </c>
       <c r="F125">
-        <v>474.589293830309</v>
+        <v>913.9635866693093</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>352.1</v>
+        <v>403.6</v>
       </c>
       <c r="B126">
-        <v>588086.7635180505</v>
+        <v>593472.8078049293</v>
       </c>
       <c r="C126">
-        <v>19958.55493928856</v>
+        <v>19934.32235344131</v>
       </c>
       <c r="D126">
-        <v>4946.307349521696</v>
+        <v>73648.45554881485</v>
       </c>
       <c r="E126">
-        <v>22967.26874429919</v>
+        <v>108894.2546372073</v>
       </c>
       <c r="F126">
-        <v>748.2569902938179</v>
+        <v>419.6208596389405</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>354.4</v>
+        <v>405.9</v>
       </c>
       <c r="B127">
-        <v>595570.9527151459</v>
+        <v>567217.099664515</v>
       </c>
       <c r="C127">
-        <v>20246.66665364819</v>
+        <v>16797.81582174157</v>
       </c>
       <c r="D127">
-        <v>4476.109604295842</v>
+        <v>82072.79855546658</v>
       </c>
       <c r="E127">
-        <v>29316.32081302984</v>
+        <v>91656.83376440151</v>
       </c>
       <c r="F127">
-        <v>451.6368547783962</v>
+        <v>375.2781326085727</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>357</v>
+        <v>408.1</v>
       </c>
       <c r="B128">
-        <v>616887.8622422975</v>
+        <v>552227.7266606406</v>
       </c>
       <c r="C128">
-        <v>18411.05380901125</v>
+        <v>20856.37479142006</v>
       </c>
       <c r="D128">
-        <v>4032.842587953583</v>
+        <v>98475.21360530736</v>
       </c>
       <c r="E128">
-        <v>33275.68402116014</v>
+        <v>94895.38771215249</v>
       </c>
       <c r="F128">
-        <v>554.1532233261805</v>
+        <v>741.1242197969161</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>359.3</v>
+        <v>410.7</v>
       </c>
       <c r="B129">
-        <v>661252.0514393931</v>
+        <v>525313.013110607</v>
       </c>
       <c r="C129">
-        <v>21759.16552337087</v>
+        <v>20024.67175558558</v>
       </c>
       <c r="D129">
-        <v>7772.644842727739</v>
+        <v>108505.3404823919</v>
       </c>
       <c r="E129">
-        <v>46854.7360898908</v>
+        <v>92530.04237767638</v>
       </c>
       <c r="F129">
-        <v>567.5330878107587</v>
+        <v>506.2150501104128</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>361.6</v>
+        <v>413</v>
       </c>
       <c r="B130">
-        <v>708036.2406364884</v>
+        <v>527727.3049701925</v>
       </c>
       <c r="C130">
-        <v>20907.2772377305</v>
+        <v>19658.16522388584</v>
       </c>
       <c r="D130">
-        <v>7922.447097501899</v>
+        <v>119509.6834890437</v>
       </c>
       <c r="E130">
-        <v>61183.78815862144</v>
+        <v>88742.62150487061</v>
       </c>
       <c r="F130">
-        <v>600.9129522953361</v>
+        <v>611.8723230800449</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>363.9</v>
+        <v>415.3</v>
       </c>
       <c r="B131">
-        <v>757750.429833584</v>
+        <v>518121.5968297782</v>
       </c>
       <c r="C131">
-        <v>22695.38895209013</v>
+        <v>18571.65869218608</v>
       </c>
       <c r="D131">
-        <v>10592.24935227605</v>
+        <v>137244.0264956954</v>
       </c>
       <c r="E131">
-        <v>76172.84022735208</v>
+        <v>88335.20063206481</v>
       </c>
       <c r="F131">
-        <v>674.2928167799143</v>
+        <v>367.5295960496762</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>366.5</v>
+        <v>417.5</v>
       </c>
       <c r="B132">
-        <v>794107.3393607354</v>
+        <v>553592.2238259037</v>
       </c>
       <c r="C132">
-        <v>21809.77610745318</v>
+        <v>21820.21766186459</v>
       </c>
       <c r="D132">
-        <v>11758.98233593379</v>
+        <v>158826.4415455362</v>
       </c>
       <c r="E132">
-        <v>99272.20343548237</v>
+        <v>91513.7545798158</v>
       </c>
       <c r="F132">
-        <v>986.8091853276989</v>
+        <v>593.3756832380195</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>368.7</v>
+        <v>419.8</v>
       </c>
       <c r="B133">
-        <v>873883.9551144791</v>
+        <v>550716.5156854894</v>
       </c>
       <c r="C133">
-        <v>20585.79600814501</v>
+        <v>19603.71113016485</v>
       </c>
       <c r="D133">
-        <v>13263.14101441342</v>
+        <v>174090.7845521879</v>
       </c>
       <c r="E133">
-        <v>126047.8184577465</v>
+        <v>88796.33370701001</v>
       </c>
       <c r="F133">
-        <v>790.4768817912087</v>
+        <v>749.0329562076516</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>371</v>
+        <v>422.1</v>
       </c>
       <c r="B134">
-        <v>959718.1443115744</v>
+        <v>551240.8075450752</v>
       </c>
       <c r="C134">
-        <v>21053.90772250463</v>
+        <v>19497.2045984651</v>
       </c>
       <c r="D134">
-        <v>13452.94326918756</v>
+        <v>189505.1275588396</v>
       </c>
       <c r="E134">
-        <v>166256.8705264771</v>
+        <v>89258.91283420422</v>
       </c>
       <c r="F134">
-        <v>823.8567462757859</v>
+        <v>594.6902291772828</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>373.3</v>
+        <v>424.6</v>
       </c>
       <c r="B135">
-        <v>1123792.33350867</v>
+        <v>579632.4291315812</v>
       </c>
       <c r="C135">
-        <v>23462.01943686427</v>
+        <v>21170.56706400885</v>
       </c>
       <c r="D135">
-        <v>20892.74552396172</v>
+        <v>208773.3264791133</v>
       </c>
       <c r="E135">
-        <v>209915.9225952078</v>
+        <v>87699.54232028489</v>
       </c>
       <c r="F135">
-        <v>877.2366107603642</v>
+        <v>339.9698737094917</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>375.6</v>
+        <v>426.9</v>
       </c>
       <c r="B136">
-        <v>1223796.522705765</v>
+        <v>570496.7209911669</v>
       </c>
       <c r="C136">
-        <v>23660.13115122388</v>
+        <v>19704.06053230912</v>
       </c>
       <c r="D136">
-        <v>25332.54777873588</v>
+        <v>221057.669485765</v>
       </c>
       <c r="E136">
-        <v>251564.9746639385</v>
+        <v>76352.1214474791</v>
       </c>
       <c r="F136">
-        <v>960.6164752449425</v>
+        <v>765.627146679123</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>377.9</v>
+        <v>429.1</v>
       </c>
       <c r="B137">
-        <v>1341740.711902861</v>
+        <v>522567.3479872923</v>
       </c>
       <c r="C137">
-        <v>24148.24286558352</v>
+        <v>19522.61950198761</v>
       </c>
       <c r="D137">
-        <v>26272.35003351004</v>
+        <v>228510.0845356058</v>
       </c>
       <c r="E137">
-        <v>288844.0267326692</v>
+        <v>42280.6753952301</v>
       </c>
       <c r="F137">
-        <v>853.9963397295209</v>
+        <v>461.4732338674672</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>380.2</v>
+        <v>431.4</v>
       </c>
       <c r="B138">
-        <v>1416854.901099957</v>
+        <v>395461.6398468781</v>
       </c>
       <c r="C138">
-        <v>23166.35457994315</v>
+        <v>16566.11297028787</v>
       </c>
       <c r="D138">
-        <v>30372.15228828419</v>
+        <v>229214.4275422575</v>
       </c>
       <c r="E138">
-        <v>302093.0788013997</v>
+        <v>30043.25452242431</v>
       </c>
       <c r="F138">
-        <v>947.3762042140989</v>
+        <v>497.1305068370986</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>382.8</v>
+        <v>433.7</v>
       </c>
       <c r="B139">
-        <v>1429161.810627108</v>
+        <v>344955.9317064639</v>
       </c>
       <c r="C139">
-        <v>25530.7417353062</v>
+        <v>17459.60643858813</v>
       </c>
       <c r="D139">
-        <v>32308.88527194192</v>
+        <v>235518.7705489092</v>
       </c>
       <c r="E139">
-        <v>286382.4420095301</v>
+        <v>28695.83364961852</v>
       </c>
       <c r="F139">
-        <v>769.8925727618824</v>
+        <v>672.7877798067307</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>385</v>
+        <v>436.3</v>
       </c>
       <c r="B140">
-        <v>1377048.426380852</v>
+        <v>312431.2181564302</v>
       </c>
       <c r="C140">
-        <v>21976.76163599803</v>
+        <v>17767.90340275363</v>
       </c>
       <c r="D140">
-        <v>28603.04395042156</v>
+        <v>230028.8974259938</v>
       </c>
       <c r="E140">
-        <v>248538.0570317941</v>
+        <v>26580.48831514241</v>
       </c>
       <c r="F140">
-        <v>943.5602692253923</v>
+        <v>617.8786101202273</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>387.3</v>
+        <v>438.5</v>
       </c>
       <c r="B141">
-        <v>1321342.615577947</v>
+        <v>301911.8451525557</v>
       </c>
       <c r="C141">
-        <v>24984.87335035765</v>
+        <v>21136.46237243212</v>
       </c>
       <c r="D141">
-        <v>28872.8462051957</v>
+        <v>227031.3124758346</v>
       </c>
       <c r="E141">
-        <v>222967.1091005248</v>
+        <v>25449.0422628934</v>
       </c>
       <c r="F141">
-        <v>616.9401337099705</v>
+        <v>543.7246973085707</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>389.6</v>
+        <v>440.8</v>
       </c>
       <c r="B142">
-        <v>1208396.804775042</v>
+        <v>282466.1370121413</v>
       </c>
       <c r="C142">
-        <v>23502.98506471727</v>
+        <v>19699.95584073238</v>
       </c>
       <c r="D142">
-        <v>30422.64845996986</v>
+        <v>208745.6554824862</v>
       </c>
       <c r="E142">
-        <v>195226.1611692554</v>
+        <v>22631.62139008761</v>
       </c>
       <c r="F142">
-        <v>650.3199981945486</v>
+        <v>679.3819702782029</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>391.9</v>
+        <v>443.1</v>
       </c>
       <c r="B143">
-        <v>1143020.993972138</v>
+        <v>268890.4288717271</v>
       </c>
       <c r="C143">
-        <v>22671.09677907692</v>
+        <v>15973.44930903264</v>
       </c>
       <c r="D143">
-        <v>31702.45071474402</v>
+        <v>185879.998489138</v>
       </c>
       <c r="E143">
-        <v>177755.2132379861</v>
+        <v>18894.20051728182</v>
       </c>
       <c r="F143">
-        <v>563.699862679127</v>
+        <v>425.0392432478341</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>394.2</v>
+        <v>445.3</v>
       </c>
       <c r="B144">
-        <v>1102775.183169234</v>
+        <v>243401.0558678526</v>
       </c>
       <c r="C144">
-        <v>25399.20849343654</v>
+        <v>20612.00827871115</v>
       </c>
       <c r="D144">
-        <v>35252.25296951818</v>
+        <v>173942.4135389788</v>
       </c>
       <c r="E144">
-        <v>164774.2653067167</v>
+        <v>17002.75446503281</v>
       </c>
       <c r="F144">
-        <v>397.0797271637052</v>
+        <v>200.8853304361775</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>396.8</v>
+        <v>447.9</v>
       </c>
       <c r="B145">
-        <v>1054082.092696385</v>
+        <v>249926.3423178189</v>
       </c>
       <c r="C145">
-        <v>23303.5956487996</v>
+        <v>19420.30524287665</v>
       </c>
       <c r="D145">
-        <v>40948.98595317591</v>
+        <v>152472.5404160634</v>
       </c>
       <c r="E145">
-        <v>154123.628514847</v>
+        <v>16607.40913055671</v>
       </c>
       <c r="F145">
-        <v>429.5960957114886</v>
+        <v>495.9761607496741</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>399</v>
+        <v>450.2</v>
       </c>
       <c r="B146">
-        <v>1011168.708450129</v>
+        <v>244560.6341774046</v>
       </c>
       <c r="C146">
-        <v>23859.61554949142</v>
+        <v>21043.79871117691</v>
       </c>
       <c r="D146">
-        <v>45793.14463165555</v>
+        <v>128826.8834227151</v>
       </c>
       <c r="E146">
-        <v>141409.2435371111</v>
+        <v>15289.98825775092</v>
       </c>
       <c r="F146">
-        <v>753.2637921749985</v>
+        <v>611.6334337193064</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>401.3</v>
+        <v>452.5</v>
       </c>
       <c r="B147">
-        <v>965242.8976472243</v>
+        <v>215334.9260369903</v>
       </c>
       <c r="C147">
-        <v>18597.72726385103</v>
+        <v>21887.29217947716</v>
       </c>
       <c r="D147">
-        <v>48992.94688642969</v>
+        <v>109251.2264293668</v>
       </c>
       <c r="E147">
-        <v>125228.2956058417</v>
+        <v>14572.56738494512</v>
       </c>
       <c r="F147">
-        <v>926.6436566595768</v>
+        <v>597.2907066889376</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>403.6</v>
+        <v>454.8</v>
       </c>
       <c r="B148">
-        <v>906877.0868443196</v>
+        <v>210479.217896576</v>
       </c>
       <c r="C148">
-        <v>22725.83897821066</v>
+        <v>19000.78564777742</v>
       </c>
       <c r="D148">
-        <v>58072.74914120384</v>
+        <v>95885.56943601859</v>
       </c>
       <c r="E148">
-        <v>108997.3476745724</v>
+        <v>12455.14651213934</v>
       </c>
       <c r="F148">
-        <v>430.0235211441541</v>
+        <v>522.9479796585697</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>405.9</v>
+        <v>457</v>
       </c>
       <c r="B149">
-        <v>879791.2760414154</v>
+        <v>180839.8448927014</v>
       </c>
       <c r="C149">
-        <v>19523.95069257031</v>
+        <v>19809.34461745591</v>
       </c>
       <c r="D149">
-        <v>66122.55139597801</v>
+        <v>82827.98448585937</v>
       </c>
       <c r="E149">
-        <v>91746.39974330305</v>
+        <v>11263.70045989032</v>
       </c>
       <c r="F149">
-        <v>383.4033856287324</v>
+        <v>378.7940668469131</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>408.1</v>
+        <v>459.3</v>
       </c>
       <c r="B150">
-        <v>864007.891795159</v>
+        <v>169354.136752287</v>
       </c>
       <c r="C150">
-        <v>23519.97059326211</v>
+        <v>18532.83808575617</v>
       </c>
       <c r="D150">
-        <v>82166.71007445762</v>
+        <v>74272.3274925111</v>
       </c>
       <c r="E150">
-        <v>94972.01476556715</v>
+        <v>10396.27958708453</v>
       </c>
       <c r="F150">
-        <v>747.0710820922424</v>
+        <v>654.4513398165452</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>410.7</v>
+        <v>461.9</v>
       </c>
       <c r="B151">
-        <v>836154.8013223103</v>
+        <v>162159.4232022535</v>
       </c>
       <c r="C151">
-        <v>22614.35774862518</v>
+        <v>17551.13504992169</v>
       </c>
       <c r="D151">
-        <v>91773.44305811536</v>
+        <v>71302.45436959565</v>
       </c>
       <c r="E151">
-        <v>92591.37797369744</v>
+        <v>9770.934252608431</v>
       </c>
       <c r="F151">
-        <v>509.5874506400265</v>
+        <v>559.542170130042</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>413</v>
+        <v>464.2</v>
       </c>
       <c r="B152">
-        <v>837738.9905194057</v>
+        <v>149513.7150618393</v>
       </c>
       <c r="C152">
-        <v>22182.46946298479</v>
+        <v>17874.62851822193</v>
       </c>
       <c r="D152">
-        <v>102403.2453128895</v>
+        <v>62066.79737624738</v>
       </c>
       <c r="E152">
-        <v>88790.4300424281</v>
+        <v>8583.51337980264</v>
       </c>
       <c r="F152">
-        <v>612.9673151246038</v>
+        <v>645.1994430996732</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>415.3</v>
+        <v>466.5</v>
       </c>
       <c r="B153">
-        <v>827303.1797165013</v>
+        <v>141678.0069214249</v>
       </c>
       <c r="C153">
-        <v>21030.58117734442</v>
+        <v>19918.12198652219</v>
       </c>
       <c r="D153">
-        <v>119763.0475676637</v>
+        <v>62121.1403828991</v>
       </c>
       <c r="E153">
-        <v>88369.48211115875</v>
+        <v>6966.092506996853</v>
       </c>
       <c r="F153">
-        <v>366.3471796091821</v>
+        <v>390.8567160693053</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>417.5</v>
+        <v>468.7</v>
       </c>
       <c r="B154">
-        <v>861979.7954702448</v>
+        <v>130958.6339175504</v>
       </c>
       <c r="C154">
-        <v>24216.60107803624</v>
+        <v>19276.6809562007</v>
       </c>
       <c r="D154">
-        <v>140987.2062461433</v>
+        <v>57533.55543273989</v>
       </c>
       <c r="E154">
-        <v>91535.09713342284</v>
+        <v>6914.646454747839</v>
       </c>
       <c r="F154">
-        <v>590.014876072692</v>
+        <v>546.7028032576487</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>419.8</v>
+        <v>477.8</v>
       </c>
       <c r="B155">
-        <v>858273.9846673404</v>
+        <v>102902.1364924328</v>
       </c>
       <c r="C155">
-        <v>21934.71279239587</v>
+        <v>17705.72033077996</v>
       </c>
       <c r="D155">
-        <v>155877.0085009174</v>
+        <v>63038.99950253585</v>
       </c>
       <c r="E155">
-        <v>88804.14920215349</v>
+        <v>6420.93778408146</v>
       </c>
       <c r="F155">
-        <v>743.3947405572702</v>
+        <v>709.5207093548876</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>422.1</v>
+        <v>480.1</v>
       </c>
       <c r="B156">
-        <v>857968.1738644358</v>
+        <v>114696.4283520185</v>
       </c>
       <c r="C156">
-        <v>21762.8245067555</v>
+        <v>21239.2137990802</v>
       </c>
       <c r="D156">
-        <v>170916.8107556916</v>
+        <v>61063.34250918761</v>
       </c>
       <c r="E156">
-        <v>89253.20127088414</v>
+        <v>6543.516911275672</v>
       </c>
       <c r="F156">
-        <v>586.7746050418476</v>
+        <v>875.1779823245188</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>424.6</v>
+        <v>482.4</v>
       </c>
       <c r="B157">
-        <v>885457.5099482354</v>
+        <v>111420.7202116043</v>
       </c>
       <c r="C157">
-        <v>23365.11984845075</v>
+        <v>21232.70726738047</v>
       </c>
       <c r="D157">
-        <v>189777.9001630548</v>
+        <v>62857.68551583933</v>
       </c>
       <c r="E157">
-        <v>87679.12743254789</v>
+        <v>6626.096038469886</v>
       </c>
       <c r="F157">
-        <v>329.5788055685636</v>
+        <v>750.835255294151</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>426.9</v>
+        <v>484.6</v>
       </c>
       <c r="B158">
-        <v>875491.6991453309</v>
+        <v>114541.3472077297</v>
       </c>
       <c r="C158">
-        <v>21833.23156281038</v>
+        <v>19121.26623705897</v>
       </c>
       <c r="D158">
-        <v>201687.702417829</v>
+        <v>62500.10056568013</v>
       </c>
       <c r="E158">
-        <v>76318.17950127854</v>
+        <v>5284.649986220871</v>
       </c>
       <c r="F158">
-        <v>752.9586700531419</v>
+        <v>396.6813424824943</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>429.1</v>
+        <v>487.2</v>
       </c>
       <c r="B159">
-        <v>826768.3148990745</v>
+        <v>101566.6336576961</v>
       </c>
       <c r="C159">
-        <v>21589.25146350218</v>
+        <v>18869.56320122447</v>
       </c>
       <c r="D159">
-        <v>208781.8610963086</v>
+        <v>61320.22744276468</v>
       </c>
       <c r="E159">
-        <v>42233.79452354265</v>
+        <v>6029.304651744764</v>
       </c>
       <c r="F159">
-        <v>446.6263665166507</v>
+        <v>591.7721727959911</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>431.4</v>
+        <v>490.1</v>
       </c>
       <c r="B160">
-        <v>698832.50409617</v>
+        <v>94962.91469804336</v>
       </c>
       <c r="C160">
-        <v>18567.36317786183</v>
+        <v>18172.66366125522</v>
       </c>
       <c r="D160">
-        <v>209111.6633510828</v>
+        <v>61016.13819028207</v>
       </c>
       <c r="E160">
-        <v>29982.84659227329</v>
+        <v>4946.034855598335</v>
       </c>
       <c r="F160">
-        <v>480.006231001229</v>
+        <v>606.2965604533532</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>433.7</v>
+        <v>492.7</v>
       </c>
       <c r="B161">
-        <v>647496.6932932655</v>
+        <v>100468.2011480097</v>
       </c>
       <c r="C161">
-        <v>19395.47489222146</v>
+        <v>23120.96062542074</v>
       </c>
       <c r="D161">
-        <v>215041.4656058569</v>
+        <v>60806.26506736665</v>
       </c>
       <c r="E161">
-        <v>28621.89866100394</v>
+        <v>5800.689521122227</v>
       </c>
       <c r="F161">
-        <v>653.3860954858073</v>
+        <v>711.3873907668499</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>436.3</v>
+        <v>495</v>
       </c>
       <c r="B162">
-        <v>614033.6028204169</v>
+        <v>114472.4930075954</v>
       </c>
       <c r="C162">
-        <v>19629.86204758451</v>
+        <v>18104.45409372099</v>
       </c>
       <c r="D162">
-        <v>209128.1985895146</v>
+        <v>61630.60807401838</v>
       </c>
       <c r="E162">
-        <v>26491.26186913424</v>
+        <v>3973.26864831644</v>
       </c>
       <c r="F162">
-        <v>595.9024640335916</v>
+        <v>557.0446637364812</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>438.5</v>
+        <v>497.3</v>
       </c>
       <c r="B163">
-        <v>602720.2185741605</v>
+        <v>110156.784867181</v>
       </c>
       <c r="C163">
-        <v>22935.88194827633</v>
+        <v>16527.94756202125</v>
       </c>
       <c r="D163">
-        <v>205772.3572679943</v>
+        <v>59214.9510806701</v>
       </c>
       <c r="E163">
-        <v>25346.87689139834</v>
+        <v>4985.847775510654</v>
       </c>
       <c r="F163">
-        <v>519.5701604971006</v>
+        <v>412.7019367061133</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>440.8</v>
+        <v>499.5</v>
       </c>
       <c r="B164">
-        <v>582444.4077712561</v>
+        <v>107167.4118633065</v>
       </c>
       <c r="C164">
-        <v>21433.99366263594</v>
+        <v>18576.50653169975</v>
       </c>
       <c r="D164">
-        <v>187112.1595227685</v>
+        <v>58377.36613051088</v>
       </c>
       <c r="E164">
-        <v>22515.92896012899</v>
+        <v>3604.401723261639</v>
       </c>
       <c r="F164">
-        <v>652.9500249816788</v>
+        <v>448.5480238944567</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>443.1</v>
+        <v>501.8</v>
       </c>
       <c r="B165">
-        <v>568038.5969683516</v>
+        <v>84091.70372289227</v>
       </c>
       <c r="C165">
-        <v>17642.10537699557</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>163871.9617775426</v>
+        <v>58701.7091371626</v>
       </c>
       <c r="E165">
-        <v>18764.98102885963</v>
+        <v>5246.98085045585</v>
       </c>
       <c r="F165">
-        <v>396.329889466257</v>
+        <v>634.2052968640888</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>445.3</v>
+        <v>504</v>
       </c>
       <c r="B166">
-        <v>541755.2127220951</v>
+        <v>107032.3307190176</v>
       </c>
       <c r="C166">
-        <v>22218.1252776874</v>
+        <v>18128.55896967851</v>
       </c>
       <c r="D166">
-        <v>151576.1204560222</v>
+        <v>59024.12418700338</v>
       </c>
       <c r="E166">
-        <v>16860.59605112374</v>
+        <v>4475.534798206838</v>
       </c>
       <c r="F166">
-        <v>169.9975859297669</v>
+        <v>620.0513840524321</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>447.9</v>
+        <v>506.6</v>
       </c>
       <c r="B167">
-        <v>547342.1222492466</v>
+        <v>97147.61716898413</v>
       </c>
       <c r="C167">
-        <v>20952.51243305047</v>
+        <v>14596.855933844</v>
       </c>
       <c r="D167">
-        <v>129682.8534396799</v>
+        <v>58404.25106408796</v>
       </c>
       <c r="E167">
-        <v>16449.95925925403</v>
+        <v>3220.189463730726</v>
       </c>
       <c r="F167">
-        <v>462.5139544775503</v>
+        <v>835.1422143659288</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>450.2</v>
+        <v>508.9</v>
       </c>
       <c r="B168">
-        <v>541146.311446342</v>
+        <v>99601.90902856985</v>
       </c>
       <c r="C168">
-        <v>22510.62414741009</v>
+        <v>17650.34940214427</v>
       </c>
       <c r="D168">
-        <v>105662.6556944541</v>
+        <v>60518.59407073967</v>
       </c>
       <c r="E168">
-        <v>15119.01132798468</v>
+        <v>4672.768590924943</v>
       </c>
       <c r="F168">
-        <v>575.8938189621286</v>
+        <v>540.7994873355601</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>452.5</v>
+        <v>511.2</v>
       </c>
       <c r="B169">
-        <v>511090.5006434376</v>
+        <v>94536.20088815545</v>
       </c>
       <c r="C169">
-        <v>23288.73586176971</v>
+        <v>17673.84287044453</v>
       </c>
       <c r="D169">
-        <v>85712.45794922826</v>
+        <v>57072.9370773914</v>
       </c>
       <c r="E169">
-        <v>14388.06339671534</v>
+        <v>3695.347718119153</v>
       </c>
       <c r="F169">
-        <v>559.2736834467069</v>
+        <v>686.4567603051922</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>454.8</v>
+        <v>513.5</v>
       </c>
       <c r="B170">
-        <v>505404.6898405331</v>
+        <v>87690.49274774118</v>
       </c>
       <c r="C170">
-        <v>20336.84757612933</v>
+        <v>13987.33633874477</v>
       </c>
       <c r="D170">
-        <v>71972.26020400242</v>
+        <v>55207.28008404314</v>
       </c>
       <c r="E170">
-        <v>12257.11546544598</v>
+        <v>3427.926845313366</v>
       </c>
       <c r="F170">
-        <v>482.6535479312851</v>
+        <v>552.1140332748234</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>457</v>
+        <v>515.7</v>
       </c>
       <c r="B171">
-        <v>474971.3055942767</v>
+        <v>76201.11974386657</v>
       </c>
       <c r="C171">
-        <v>21082.86747682116</v>
+        <v>16275.89530842326</v>
       </c>
       <c r="D171">
-        <v>58556.41888248204</v>
+        <v>55149.69513388394</v>
       </c>
       <c r="E171">
-        <v>11052.73048771008</v>
+        <v>2726.480793064348</v>
       </c>
       <c r="F171">
-        <v>336.3212443947941</v>
+        <v>407.9601204631678</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>459.3</v>
+        <v>518</v>
       </c>
       <c r="B172">
-        <v>462655.4947913722</v>
+        <v>66195.41160345229</v>
       </c>
       <c r="C172">
-        <v>19740.97919118078</v>
+        <v>17689.38877672354</v>
       </c>
       <c r="D172">
-        <v>49626.22113725619</v>
+        <v>59624.03814053567</v>
       </c>
       <c r="E172">
-        <v>10171.78255644073</v>
+        <v>2779.059920258565</v>
       </c>
       <c r="F172">
-        <v>609.7011088793722</v>
+        <v>533.617393432799</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>461.9</v>
+        <v>520.3</v>
       </c>
       <c r="B173">
-        <v>454522.4043185236</v>
+        <v>91329.70346303801</v>
       </c>
       <c r="C173">
-        <v>18685.36634654385</v>
+        <v>17382.8822450238</v>
       </c>
       <c r="D173">
-        <v>46232.95412091394</v>
+        <v>57508.38114718739</v>
       </c>
       <c r="E173">
-        <v>9531.145764571032</v>
+        <v>2361.639047452778</v>
       </c>
       <c r="F173">
-        <v>512.2174774271566</v>
+        <v>529.2746664024312</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>464.2</v>
+        <v>522.8</v>
       </c>
       <c r="B174">
-        <v>441046.5935156192</v>
+        <v>82931.32504954413</v>
       </c>
       <c r="C174">
-        <v>18943.47806090347</v>
+        <v>14746.24471056755</v>
       </c>
       <c r="D174">
-        <v>36622.75637568811</v>
+        <v>61346.58006746101</v>
       </c>
       <c r="E174">
-        <v>8330.197833301678</v>
+        <v>3512.268533533443</v>
       </c>
       <c r="F174">
-        <v>595.5973419117349</v>
+        <v>734.554310934639</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>466.5</v>
+        <v>525.1</v>
       </c>
       <c r="B175">
-        <v>432380.7827127147</v>
+        <v>88915.61690912988</v>
       </c>
       <c r="C175">
-        <v>20921.5897752631</v>
+        <v>19049.73817886779</v>
       </c>
       <c r="D175">
-        <v>36302.55863046225</v>
+        <v>58970.92307411274</v>
       </c>
       <c r="E175">
-        <v>6699.249902032325</v>
+        <v>5684.847660727652</v>
       </c>
       <c r="F175">
-        <v>338.9772063963131</v>
+        <v>540.2115839042713</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>468.7</v>
+        <v>527.7</v>
       </c>
       <c r="B176">
-        <v>420867.3984664583</v>
+        <v>75640.90335909635</v>
       </c>
       <c r="C176">
-        <v>20217.60967595492</v>
+        <v>18058.03514303329</v>
       </c>
       <c r="D176">
-        <v>31356.71730894189</v>
+        <v>56261.04995119729</v>
       </c>
       <c r="E176">
-        <v>6634.864924296422</v>
+        <v>3859.502326251544</v>
       </c>
       <c r="F176">
-        <v>492.6449028598221</v>
+        <v>625.3024142177678</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>477.8</v>
+        <v>530</v>
       </c>
       <c r="B177">
-        <v>389526.5818114883</v>
+        <v>75295.19521868195</v>
       </c>
       <c r="C177">
-        <v>18387.96471972561</v>
+        <v>18511.52861133356</v>
       </c>
       <c r="D177">
-        <v>35380.28275174395</v>
+        <v>55895.39295784902</v>
       </c>
       <c r="E177">
-        <v>6087.636152752466</v>
+        <v>2592.081453445757</v>
       </c>
       <c r="F177">
-        <v>646.4521927770659</v>
+        <v>330.9596871874</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>480.1</v>
+        <v>532.2</v>
       </c>
       <c r="B178">
-        <v>400490.7710085838</v>
+        <v>72655.82221480746</v>
       </c>
       <c r="C178">
-        <v>21856.07643408524</v>
+        <v>17920.08758101205</v>
       </c>
       <c r="D178">
-        <v>33030.08500651812</v>
+        <v>57587.8080076898</v>
       </c>
       <c r="E178">
-        <v>6196.688221483114</v>
+        <v>3430.635401196743</v>
       </c>
       <c r="F178">
-        <v>809.8320572616441</v>
+        <v>416.8057743757434</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>482.4</v>
+        <v>534.5</v>
       </c>
       <c r="B179">
-        <v>396384.9602056794</v>
+        <v>63450.11407439318</v>
       </c>
       <c r="C179">
-        <v>21784.18814844489</v>
+        <v>15573.58104931232</v>
       </c>
       <c r="D179">
-        <v>34449.88726129227</v>
+        <v>52282.15101434154</v>
       </c>
       <c r="E179">
-        <v>6265.740290213766</v>
+        <v>1983.214528390956</v>
       </c>
       <c r="F179">
-        <v>683.2119217462223</v>
+        <v>352.4630473453747</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>484.6</v>
+        <v>537.1</v>
       </c>
       <c r="B180">
-        <v>398711.5759594229</v>
+        <v>49145.40052435953</v>
       </c>
       <c r="C180">
-        <v>19610.20804913669</v>
+        <v>15701.87801347782</v>
       </c>
       <c r="D180">
-        <v>33734.0459397719</v>
+        <v>53292.2778914261</v>
       </c>
       <c r="E180">
-        <v>4911.355312477863</v>
+        <v>2267.869193914848</v>
       </c>
       <c r="F180">
-        <v>326.8796182097321</v>
+        <v>637.5538776588714</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>487.2</v>
+        <v>539.3</v>
       </c>
       <c r="B181">
-        <v>384798.4854865744</v>
+        <v>69036.027520485</v>
       </c>
       <c r="C181">
-        <v>19284.59520449976</v>
+        <v>13150.43698315633</v>
       </c>
       <c r="D181">
-        <v>32130.77892342964</v>
+        <v>51264.6929412669</v>
       </c>
       <c r="E181">
-        <v>5640.718520608161</v>
+        <v>2316.423141665838</v>
       </c>
       <c r="F181">
-        <v>519.3959867575156</v>
+        <v>693.3999648472147</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>490.1</v>
+        <v>541.6</v>
       </c>
       <c r="B182">
-        <v>377148.1153437818</v>
+        <v>69840.31938007064</v>
       </c>
       <c r="C182">
-        <v>18505.25780086623</v>
+        <v>17503.93045145657</v>
       </c>
       <c r="D182">
-        <v>31354.44263597098</v>
+        <v>54079.03594791863</v>
       </c>
       <c r="E182">
-        <v>4540.392868138108</v>
+        <v>2209.002268860047</v>
       </c>
       <c r="F182">
-        <v>531.048859368506</v>
+        <v>429.0572378168469</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>492.7</v>
+        <v>543.8</v>
       </c>
       <c r="B183">
-        <v>381715.0248709332</v>
+        <v>80080.94637619611</v>
       </c>
       <c r="C183">
-        <v>23379.64495622931</v>
+        <v>17142.4894211351</v>
       </c>
       <c r="D183">
-        <v>30721.17561962872</v>
+        <v>53711.45099775941</v>
       </c>
       <c r="E183">
-        <v>5379.756076268409</v>
+        <v>2517.556216611037</v>
       </c>
       <c r="F183">
-        <v>633.5652279162894</v>
+        <v>644.9033250051903</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>495</v>
+        <v>546.4</v>
       </c>
       <c r="B184">
-        <v>394889.2140680287</v>
+        <v>65666.2328261626</v>
       </c>
       <c r="C184">
-        <v>18297.75667058892</v>
+        <v>13570.78638530059</v>
       </c>
       <c r="D184">
-        <v>31170.97787440287</v>
+        <v>54431.57787484396</v>
       </c>
       <c r="E184">
-        <v>3538.808144999058</v>
+        <v>3352.210882134925</v>
       </c>
       <c r="F184">
-        <v>476.9450924008677</v>
+        <v>449.994155318687</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>497.3</v>
+        <v>548.6</v>
       </c>
       <c r="B185">
-        <v>389743.4032651243</v>
+        <v>72956.85982228797</v>
       </c>
       <c r="C185">
-        <v>16655.86838494855</v>
+        <v>17789.34535497908</v>
       </c>
       <c r="D185">
-        <v>28380.78012917701</v>
+        <v>54223.99292468475</v>
       </c>
       <c r="E185">
-        <v>4537.860213729705</v>
+        <v>3490.764829885911</v>
       </c>
       <c r="F185">
-        <v>330.3249568854459</v>
+        <v>615.8402425070303</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>499.5</v>
+        <v>550.9</v>
       </c>
       <c r="B186">
-        <v>385960.0190188679</v>
+        <v>87271.1516818737</v>
       </c>
       <c r="C186">
-        <v>18641.88828564037</v>
+        <v>19222.83882327935</v>
       </c>
       <c r="D186">
-        <v>27184.93880765664</v>
+        <v>53778.33593133648</v>
       </c>
       <c r="E186">
-        <v>3143.475235993807</v>
+        <v>3283.343957080124</v>
       </c>
       <c r="F186">
-        <v>363.9926533489557</v>
+        <v>631.4975154766626</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>501.8</v>
+        <v>553.2</v>
       </c>
       <c r="B187">
-        <v>362054.2082159633</v>
+        <v>74975.44354145943</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>18166.33229157959</v>
       </c>
       <c r="D187">
-        <v>27134.74106243078</v>
+        <v>50982.67893798821</v>
       </c>
       <c r="E187">
-        <v>4772.527304724453</v>
+        <v>2385.923084274333</v>
       </c>
       <c r="F187">
-        <v>547.372517833533</v>
+        <v>477.1547884462937</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>504</v>
+        <v>555.4</v>
       </c>
       <c r="B188">
-        <v>384200.8239697068</v>
+        <v>69806.07053758479</v>
       </c>
       <c r="C188">
-        <v>18066.01990069182</v>
+        <v>18864.89126125811</v>
       </c>
       <c r="D188">
-        <v>27098.89974091041</v>
+        <v>50625.09398782899</v>
       </c>
       <c r="E188">
-        <v>3988.142326988552</v>
+        <v>1894.477032025322</v>
       </c>
       <c r="F188">
-        <v>531.040214297043</v>
+        <v>403.0008756346371</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>506.6</v>
+        <v>557.7</v>
       </c>
       <c r="B189">
-        <v>373377.7334968583</v>
+        <v>67690.36239717052</v>
       </c>
       <c r="C189">
-        <v>14460.40705605487</v>
+        <v>16388.38472955835</v>
       </c>
       <c r="D189">
-        <v>26055.63272456815</v>
+        <v>50349.43699448073</v>
       </c>
       <c r="E189">
-        <v>2717.505535118849</v>
+        <v>2187.056159219531</v>
       </c>
       <c r="F189">
-        <v>743.5565828448274</v>
+        <v>568.6581486042692</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>508.9</v>
+        <v>560.3</v>
       </c>
       <c r="B190">
-        <v>375001.9226939539</v>
+        <v>68355.648847137</v>
       </c>
       <c r="C190">
-        <v>17448.5187704145</v>
+        <v>14436.68169372388</v>
       </c>
       <c r="D190">
-        <v>27795.4349793423</v>
+        <v>50719.5638715653</v>
       </c>
       <c r="E190">
-        <v>4156.557603849502</v>
+        <v>2361.710824743428</v>
       </c>
       <c r="F190">
-        <v>446.9364473294056</v>
+        <v>373.748978917766</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>511.2</v>
+        <v>562.5</v>
       </c>
       <c r="B191">
-        <v>369106.1118910494</v>
+        <v>66156.27584326237</v>
       </c>
       <c r="C191">
-        <v>17406.63048477413</v>
+        <v>16165.24066340236</v>
       </c>
       <c r="D191">
-        <v>23975.23723411647</v>
+        <v>51961.97892140609</v>
       </c>
       <c r="E191">
-        <v>3165.609672580149</v>
+        <v>2140.264772494409</v>
       </c>
       <c r="F191">
-        <v>590.3163118139829</v>
+        <v>509.5950661061093</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>513.5</v>
+        <v>564.8</v>
       </c>
       <c r="B192">
-        <v>361430.3010881449</v>
+        <v>66630.5677028481</v>
       </c>
       <c r="C192">
-        <v>13654.74219913376</v>
+        <v>18628.73413170264</v>
       </c>
       <c r="D192">
-        <v>21735.03948889062</v>
+        <v>49686.32192805781</v>
       </c>
       <c r="E192">
-        <v>2884.661741310797</v>
+        <v>2832.843899688627</v>
       </c>
       <c r="F192">
-        <v>453.6961762985611</v>
+        <v>475.2523390757415</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>515.7</v>
+        <v>567.1</v>
       </c>
       <c r="B193">
-        <v>349146.9168418885</v>
+        <v>58414.85956243372</v>
       </c>
       <c r="C193">
-        <v>15880.76209982557</v>
+        <v>16352.22760000287</v>
       </c>
       <c r="D193">
-        <v>21319.19816737025</v>
+        <v>49740.66493470954</v>
       </c>
       <c r="E193">
-        <v>2170.276763574893</v>
+        <v>2415.423026882836</v>
       </c>
       <c r="F193">
-        <v>307.363872762071</v>
+        <v>530.9096120453727</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>518</v>
+        <v>569.7</v>
       </c>
       <c r="B194">
-        <v>338311.106038984</v>
+        <v>51150.1460124002</v>
       </c>
       <c r="C194">
-        <v>17228.87381418521</v>
+        <v>16220.52456416838</v>
       </c>
       <c r="D194">
-        <v>25419.0004221444</v>
+        <v>51960.7918117941</v>
       </c>
       <c r="E194">
-        <v>2209.328832305542</v>
+        <v>2800.077692406725</v>
       </c>
       <c r="F194">
-        <v>430.7437372466493</v>
+        <v>346.0004423588703</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>520.3</v>
+        <v>571.9</v>
       </c>
       <c r="B195">
-        <v>362615.2952360794</v>
+        <v>57940.77300852568</v>
       </c>
       <c r="C195">
-        <v>16856.98552854484</v>
+        <v>11719.08353384689</v>
       </c>
       <c r="D195">
-        <v>22928.80267691857</v>
+        <v>46623.20686163487</v>
       </c>
       <c r="E195">
-        <v>1778.380901036194</v>
+        <v>2538.631640157714</v>
       </c>
       <c r="F195">
-        <v>424.1236017312276</v>
+        <v>791.8465295472137</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>522.8</v>
+        <v>574.2</v>
       </c>
       <c r="B196">
-        <v>353314.631319879</v>
+        <v>68205.06486811129</v>
       </c>
       <c r="C196">
-        <v>14149.28087024009</v>
+        <v>19342.57700214713</v>
       </c>
       <c r="D196">
-        <v>26359.89208428178</v>
+        <v>51037.54986828662</v>
       </c>
       <c r="E196">
-        <v>2914.307062699942</v>
+        <v>3161.210767351923</v>
       </c>
       <c r="F196">
-        <v>626.9278022579426</v>
+        <v>577.5038025168449</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>525.1</v>
+        <v>576.4</v>
       </c>
       <c r="B197">
-        <v>358468.8205169745</v>
+        <v>63825.69186423677</v>
       </c>
       <c r="C197">
-        <v>18387.3925845997</v>
+        <v>19391.13597182566</v>
       </c>
       <c r="D197">
-        <v>23609.69433905591</v>
+        <v>50649.96491812739</v>
       </c>
       <c r="E197">
-        <v>5073.359131430588</v>
+        <v>2409.764715102913</v>
       </c>
       <c r="F197">
-        <v>430.3076667425207</v>
+        <v>453.3498897051883</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>527.7</v>
+        <v>578.7</v>
       </c>
       <c r="B198">
-        <v>344255.7300441259</v>
+        <v>65029.9837238225</v>
       </c>
       <c r="C198">
-        <v>17321.77973996275</v>
+        <v>17624.6294401259</v>
       </c>
       <c r="D198">
-        <v>20476.42732271365</v>
+        <v>51144.30792477912</v>
       </c>
       <c r="E198">
-        <v>3232.722339560883</v>
+        <v>2492.343842297122</v>
       </c>
       <c r="F198">
-        <v>512.8240352903041</v>
+        <v>699.0071626748204</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>530</v>
+        <v>580.9</v>
       </c>
       <c r="B199">
-        <v>343079.9192412215</v>
+        <v>69980.61071994786</v>
       </c>
       <c r="C199">
-        <v>17709.8914543224</v>
+        <v>14743.18840980441</v>
       </c>
       <c r="D199">
-        <v>19736.22957748781</v>
+        <v>50486.72297461992</v>
       </c>
       <c r="E199">
-        <v>1951.774408291535</v>
+        <v>1760.897790048112</v>
       </c>
       <c r="F199">
-        <v>216.2038997748824</v>
+        <v>624.8532498631637</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>532.2</v>
+        <v>583.5</v>
       </c>
       <c r="B200">
-        <v>339646.5349949651</v>
+        <v>61235.89716991434</v>
       </c>
       <c r="C200">
-        <v>17055.9113550142</v>
+        <v>16201.48537396991</v>
       </c>
       <c r="D200">
-        <v>21070.38825596742</v>
+        <v>50796.84985170448</v>
       </c>
       <c r="E200">
-        <v>2777.389430555632</v>
+        <v>2475.552455572004</v>
       </c>
       <c r="F200">
-        <v>299.8715962383923</v>
+        <v>639.9440801766605</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>534.5</v>
+        <v>585.8</v>
       </c>
       <c r="B201">
-        <v>329610.7241920605</v>
+        <v>58750.18902950008</v>
       </c>
       <c r="C201">
-        <v>14644.02306937385</v>
+        <v>15554.97884227017</v>
       </c>
       <c r="D201">
-        <v>15390.1905107416</v>
+        <v>50891.1928583562</v>
       </c>
       <c r="E201">
-        <v>1316.441499286284</v>
+        <v>2498.131582766217</v>
       </c>
       <c r="F201">
-        <v>233.2514607229706</v>
+        <v>495.6013531462926</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>537.1</v>
+        <v>588</v>
       </c>
       <c r="B202">
-        <v>314367.633719212</v>
+        <v>53580.81602562543</v>
       </c>
       <c r="C202">
-        <v>14698.4102247369</v>
+        <v>15093.53781194867</v>
       </c>
       <c r="D202">
-        <v>15976.92349439934</v>
+        <v>51773.60790819698</v>
       </c>
       <c r="E202">
-        <v>1585.804707416579</v>
+        <v>1446.685530517203</v>
       </c>
       <c r="F202">
-        <v>515.767829270754</v>
+        <v>301.447440334636</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>539.3</v>
+        <v>590.3</v>
       </c>
       <c r="B203">
-        <v>333464.2494729555</v>
+        <v>64145.10788521117</v>
       </c>
       <c r="C203">
-        <v>12084.43012542872</v>
+        <v>14817.03128024894</v>
       </c>
       <c r="D203">
-        <v>13591.08217287898</v>
+        <v>48977.95091484871</v>
       </c>
       <c r="E203">
-        <v>1621.419729680684</v>
+        <v>2469.264657711416</v>
       </c>
       <c r="F203">
-        <v>569.4355257342639</v>
+        <v>547.1047133042673</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>541.6</v>
+        <v>592.5</v>
       </c>
       <c r="B204">
-        <v>333438.4386700511</v>
+        <v>64975.73488133654</v>
       </c>
       <c r="C204">
-        <v>16372.54183978834</v>
+        <v>17405.59024992743</v>
       </c>
       <c r="D204">
-        <v>16030.88442765312</v>
+        <v>50780.3659646895</v>
       </c>
       <c r="E204">
-        <v>1500.471798411327</v>
+        <v>2307.818605462397</v>
       </c>
       <c r="F204">
-        <v>302.8153902188421</v>
+        <v>752.9508004926106</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>543.8</v>
+        <v>595.1</v>
       </c>
       <c r="B205">
-        <v>342885.0544237947</v>
+        <v>58051.02133130301</v>
       </c>
       <c r="C205">
-        <v>15948.56174048017</v>
+        <v>13413.88721409293</v>
       </c>
       <c r="D205">
-        <v>15305.04310613275</v>
+        <v>50590.49284177406</v>
       </c>
       <c r="E205">
-        <v>1796.086820675429</v>
+        <v>2042.47327098629</v>
       </c>
       <c r="F205">
-        <v>516.4830866823511</v>
+        <v>388.0416308061073</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>546.4</v>
+        <v>597.4</v>
       </c>
       <c r="B206">
-        <v>327531.9639509461</v>
+        <v>45425.31319088874</v>
       </c>
       <c r="C206">
-        <v>12302.94889584323</v>
+        <v>12147.38068239319</v>
       </c>
       <c r="D206">
-        <v>15601.7760897905</v>
+        <v>47134.83584842578</v>
       </c>
       <c r="E206">
-        <v>2615.450028805728</v>
+        <v>1275.052398180503</v>
       </c>
       <c r="F206">
-        <v>318.9994552301354</v>
+        <v>353.6989037757394</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>548.6</v>
+        <v>599.6</v>
       </c>
       <c r="B207">
-        <v>334028.5797046897</v>
+        <v>48155.94018701412</v>
       </c>
       <c r="C207">
-        <v>16458.96879653503</v>
+        <v>14225.93965207169</v>
       </c>
       <c r="D207">
-        <v>15035.93476827011</v>
+        <v>52067.25089826656</v>
       </c>
       <c r="E207">
-        <v>2741.065051069824</v>
+        <v>1653.606345931488</v>
       </c>
       <c r="F207">
-        <v>482.6671516936443</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="1">
-        <v>550.9</v>
-      </c>
-      <c r="B208">
-        <v>347512.7689017851</v>
-      </c>
-      <c r="C208">
-        <v>17827.08051089468</v>
-      </c>
-      <c r="D208">
-        <v>14215.73702304427</v>
-      </c>
-      <c r="E208">
-        <v>2520.117119800477</v>
-      </c>
-      <c r="F208">
-        <v>496.0470161782226</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="1">
-        <v>553.2</v>
-      </c>
-      <c r="B209">
-        <v>334386.9580988807</v>
-      </c>
-      <c r="C209">
-        <v>16705.19222525429</v>
-      </c>
-      <c r="D209">
-        <v>11045.53927781841</v>
-      </c>
-      <c r="E209">
-        <v>1609.169188531119</v>
-      </c>
-      <c r="F209">
-        <v>339.4268806628008</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="1">
-        <v>555.4</v>
-      </c>
-      <c r="B210">
-        <v>328423.5738526242</v>
-      </c>
-      <c r="C210">
-        <v>17341.21212594611</v>
-      </c>
-      <c r="D210">
-        <v>10329.69795629805</v>
-      </c>
-      <c r="E210">
-        <v>1104.784210795222</v>
-      </c>
-      <c r="F210">
-        <v>263.0945771263108</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="1">
-        <v>557.7</v>
-      </c>
-      <c r="B211">
-        <v>325477.7630497197</v>
-      </c>
-      <c r="C211">
-        <v>14799.32384030572</v>
-      </c>
-      <c r="D211">
-        <v>9679.500211072191</v>
-      </c>
-      <c r="E211">
-        <v>1383.836279525864</v>
-      </c>
-      <c r="F211">
-        <v>426.4744416108889</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>560.3</v>
-      </c>
-      <c r="B212">
-        <v>325204.6725768712</v>
-      </c>
-      <c r="C212">
-        <v>12773.71099566881</v>
-      </c>
-      <c r="D212">
-        <v>9626.233194729939</v>
-      </c>
-      <c r="E212">
-        <v>1543.199487656171</v>
-      </c>
-      <c r="F212">
-        <v>228.9908101586724</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>562.5</v>
-      </c>
-      <c r="B213">
-        <v>322211.2883306147</v>
-      </c>
-      <c r="C213">
-        <v>14439.73089636062</v>
-      </c>
-      <c r="D213">
-        <v>10510.39187320956</v>
-      </c>
-      <c r="E213">
-        <v>1308.814509920265</v>
-      </c>
-      <c r="F213">
-        <v>362.6585066221822</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>564.8</v>
-      </c>
-      <c r="B214">
-        <v>321855.4775277103</v>
-      </c>
-      <c r="C214">
-        <v>16837.84261072026</v>
-      </c>
-      <c r="D214">
-        <v>7860.194127983727</v>
-      </c>
-      <c r="E214">
-        <v>1987.866578650916</v>
-      </c>
-      <c r="F214">
-        <v>326.0383711067606</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>567.1</v>
-      </c>
-      <c r="B215">
-        <v>312809.6667248058</v>
-      </c>
-      <c r="C215">
-        <v>14495.95432507987</v>
-      </c>
-      <c r="D215">
-        <v>7539.996382757883</v>
-      </c>
-      <c r="E215">
-        <v>1556.918647381563</v>
-      </c>
-      <c r="F215">
-        <v>379.4182355913388</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>569.7</v>
-      </c>
-      <c r="B216">
-        <v>304606.5762519572</v>
-      </c>
-      <c r="C216">
-        <v>14290.34148044292</v>
-      </c>
-      <c r="D216">
-        <v>9336.729366415602</v>
-      </c>
-      <c r="E216">
-        <v>1926.281855511858</v>
-      </c>
-      <c r="F216">
-        <v>191.9346041391222</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>571.9</v>
-      </c>
-      <c r="B217">
-        <v>310603.1920057007</v>
-      </c>
-      <c r="C217">
-        <v>9726.36138113475</v>
-      </c>
-      <c r="D217">
-        <v>3640.88804489524</v>
-      </c>
-      <c r="E217">
-        <v>1651.896877775964</v>
-      </c>
-      <c r="F217">
-        <v>635.6023006026321</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>574.2</v>
-      </c>
-      <c r="B218">
-        <v>320037.3812027963</v>
-      </c>
-      <c r="C218">
-        <v>17284.47309549436</v>
-      </c>
-      <c r="D218">
-        <v>7680.690299669397</v>
-      </c>
-      <c r="E218">
-        <v>2260.948946506607</v>
-      </c>
-      <c r="F218">
-        <v>418.9821650872102</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>576.4</v>
-      </c>
-      <c r="B219">
-        <v>314863.9969565399</v>
-      </c>
-      <c r="C219">
-        <v>17270.4929961862</v>
-      </c>
-      <c r="D219">
-        <v>6934.848978149035</v>
-      </c>
-      <c r="E219">
-        <v>1496.563968770709</v>
-      </c>
-      <c r="F219">
-        <v>292.6498615507193</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>578.7</v>
-      </c>
-      <c r="B220">
-        <v>315238.1861536354</v>
-      </c>
-      <c r="C220">
-        <v>15438.60471054581</v>
-      </c>
-      <c r="D220">
-        <v>7054.65123292317</v>
-      </c>
-      <c r="E220">
-        <v>1565.616037501352</v>
-      </c>
-      <c r="F220">
-        <v>536.0297260352975</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>580.9</v>
-      </c>
-      <c r="B221">
-        <v>319394.8019073789</v>
-      </c>
-      <c r="C221">
-        <v>12494.62461123765</v>
-      </c>
-      <c r="D221">
-        <v>6038.809911402808</v>
-      </c>
-      <c r="E221">
-        <v>821.2310597654575</v>
-      </c>
-      <c r="F221">
-        <v>459.6974224988074</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>583.5</v>
-      </c>
-      <c r="B222">
-        <v>309711.7114345303</v>
-      </c>
-      <c r="C222">
-        <v>13879.0117666007</v>
-      </c>
-      <c r="D222">
-        <v>5925.542895060549</v>
-      </c>
-      <c r="E222">
-        <v>1520.594267895752</v>
-      </c>
-      <c r="F222">
-        <v>472.2137910465917</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>585.8</v>
-      </c>
-      <c r="B223">
-        <v>306395.9006316258</v>
-      </c>
-      <c r="C223">
-        <v>13167.12348096033</v>
-      </c>
-      <c r="D223">
-        <v>5645.345149834699</v>
-      </c>
-      <c r="E223">
-        <v>1529.646336626404</v>
-      </c>
-      <c r="F223">
-        <v>325.5936555311691</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>588</v>
-      </c>
-      <c r="B224">
-        <v>300432.5163853694</v>
-      </c>
-      <c r="C224">
-        <v>12643.14338165213</v>
-      </c>
-      <c r="D224">
-        <v>6169.503828314322</v>
-      </c>
-      <c r="E224">
-        <v>465.2613588905012</v>
-      </c>
-      <c r="F224">
-        <v>129.2613519946789</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>590.3</v>
-      </c>
-      <c r="B225">
-        <v>310166.705582465</v>
-      </c>
-      <c r="C225">
-        <v>12301.25509601178</v>
-      </c>
-      <c r="D225">
-        <v>2999.306083088471</v>
-      </c>
-      <c r="E225">
-        <v>1474.313427621153</v>
-      </c>
-      <c r="F225">
-        <v>372.6412164792572</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>592.5</v>
-      </c>
-      <c r="B226">
-        <v>310203.3213362086</v>
-      </c>
-      <c r="C226">
-        <v>14827.27499670359</v>
-      </c>
-      <c r="D226">
-        <v>4443.464761568102</v>
-      </c>
-      <c r="E226">
-        <v>1299.92844988525</v>
-      </c>
-      <c r="F226">
-        <v>576.3089129427661</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>595.1</v>
-      </c>
-      <c r="B227">
-        <v>302340.2308633599</v>
-      </c>
-      <c r="C227">
-        <v>10761.66215206666</v>
-      </c>
-      <c r="D227">
-        <v>3830.197745225843</v>
-      </c>
-      <c r="E227">
-        <v>1019.291658015544</v>
-      </c>
-      <c r="F227">
-        <v>208.8252814905505</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>597.4</v>
-      </c>
-      <c r="B228">
-        <v>288884.4200604554</v>
-      </c>
-      <c r="C228">
-        <v>9429.773866426269</v>
-      </c>
-      <c r="D228">
-        <v>0</v>
-      </c>
-      <c r="E228">
-        <v>238.3437267461966</v>
-      </c>
-      <c r="F228">
-        <v>172.2051459751288</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>599.6</v>
-      </c>
-      <c r="B229">
-        <v>290821.035814199</v>
-      </c>
-      <c r="C229">
-        <v>11445.79376711807</v>
-      </c>
-      <c r="D229">
-        <v>4574.158678479616</v>
-      </c>
-      <c r="E229">
-        <v>603.9587490102929</v>
-      </c>
-      <c r="F229">
-        <v>285.8728424386377</v>
+        <v>469.5449909640828</v>
       </c>
     </row>
   </sheetData>
